--- a/job.xlsx
+++ b/job.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H242"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3340013856/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=YEDDnLLQamNVIEUOwFah7w%3D%3D&amp;trackingId=f%2FxTIIZ4gSxBfCPH3Ua%2BGQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3340013856/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=zSS1o6MDf%2Bodlg1Q%2B3oZnA%3D%3D&amp;trackingId=bgWbQz4w7pUKaKq%2FTIW9OA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3334194462/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=YEDDnLLQamNVIEUOwFah7w%3D%3D&amp;trackingId=dmt95CxZIzzSLjZC1j4E2A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3334194462/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=zSS1o6MDf%2Bodlg1Q%2B3oZnA%3D%3D&amp;trackingId=rSs0gSWnvgiIcAJsRtArcg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3334189881/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=YEDDnLLQamNVIEUOwFah7w%3D%3D&amp;trackingId=8YDULs2MqFkHHUGLSPMs5A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3334189881/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=zSS1o6MDf%2Bodlg1Q%2B3oZnA%3D%3D&amp;trackingId=tNW%2FyWbGn%2BOYAxwdsgZ%2FBw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3233755411/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=YEDDnLLQamNVIEUOwFah7w%3D%3D&amp;trackingId=INiDNS425Jx4bmH6V1chZw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3233755411/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=zSS1o6MDf%2Bodlg1Q%2B3oZnA%3D%3D&amp;trackingId=lNGQfqc%2BHQWR1xB6nyJ0xg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3248375918/?eBP=CwEAAAGEZjQWJuvWovqP7U5wzHvGwYJR5cZA9WcIQIdMPkeVK7-bO8HjXdPFqUjzHZUlWDbyJgiWp7aU8I76b-kPK6cxLndAdi5weTW0SCOmsn1nuGJPwd7eU1n2oFA4Mhcsl0lzph7PFhV2gd33NFt1-3l7iF2v2PQGJWGjjsfF2rIuRV-XXoRkUQVWMY4b4VImbcBLE_jz6VmZXhcWIWlDdyooaTOAiK4cH3vF6lKZplVFM4rc7GSwDJmlB-VoA3tYfHfvsiACmN-rnKwpfUgH5R8zcfZuJErhp8xHV9D_8Ge1TlWQVu-z92LH23xPdzAqZvy-pMaIKLKCbcRWAVRhjJVQxywGPgNSa7wONg26PvZAc8YDPBajzffgmXrNnKzc&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=YEDDnLLQamNVIEUOwFah7w%3D%3D&amp;trackingId=RjuKzdhxyy6STILnoLboaA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3248375918/?eBP=CwEAAAGEZkh7X0_0tUy6pM1QckgVLcSQJEy3nLGTNxKuWClb9AUaaqPnAswJzlsfljz3jN0U6eWat4aOlxLOOfZVmBNjXTDHR1AA7KDAA4gTV2o7G9B_B5sK2MTEqSQu7sVZxGl_uuhS8XrWwHBG3Psw5HifjP3CrcBzlNWsIZWvZLauhvLC5ytRkE6G1rNKirBhN-IPPBRufdnQJXZAabJX5PRBO3gNC1EScA0YvfVx1KGcMqQCeo0_eau7ZORKGfnFmg-qPUXU0p7jzhnBav0CgWD1vuaHbotw-PLGJephfHk7nlIzhpNUQ0KzjiQMScq_qcH8VJwmTnIXIZrYMg_nkmWkSJL9n2d5pbiAQ-zl3ds0FfU064i4h7B7-USukEl4MX3HZw&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=zSS1o6MDf%2Bodlg1Q%2B3oZnA%3D%3D&amp;trackingId=%2BwAr00QLRuHmJvj3Kkjo4g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3313003458/?eBP=CwEAAAGEZjQWJmIm89DSqSONrjm1z4jaSZkPxd_k-dRFgDIRWVjkV9h3nP_fZ2m5Z5vqPxA82bvVdImZnCHjH9ApKSBECxnY_0LtzT3rk7HInEy0WPietTT1IjBzYgAXPW5temz0yicjNm_G40W4EG5PTrbcX4iqWZ_0ly36usuJbEoKpSlOmthbD8gpnSG6XBt2gotMDDeYp6pat--iAQ5-ep4eFU4VqB2uHLkSTI_AZs6XFjwPr6MsNtxCL3LeZAXCknhWTKYwRgXbnYSb3i37F7bDRX0Mj-Mis6NVe0o7OhN1juOsC2ZOx0VyUktfMMpGM3mYxAgy2BZ2v13yjMnjNEbowpQnJXtLI5JGe59ki7vm7DHo2CLnUnJD_TSWCZ4iZAY&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=YEDDnLLQamNVIEUOwFah7w%3D%3D&amp;trackingId=%2B2RzQjqlbkIYZlOkHsPYLQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3313003458/?eBP=CwEAAAGEZkh7X3x48TTj3zc0Hu3R88sWQFtleh_Lh5M-v_bAhwcuUi_36E20DBs_fL599SCyRFy_rOVvA-D5m61-NgGmZoK5zpaFvdu-JvNyEZq5sojauiku8kNCzEAb0F8WbPI67PKyeIoHjAikr0H2OY6ZKZ6QepcA9-z1vlxEyqrfX6Oc00cLDF0ey20Nn7g6GxLb5haiyvkgQYdsfZXNmDqOdKXFJnvtTpnflaEgA6QKQzZtorYNpZj5vdZ-CwKcYN1fNZmiCZQojcYWH5RNfajDzJyhnfwa-E2AZmzOvaY3FUTyzDfs3tw0bF6EuVvLmFXAEUCNyz7Dw-kRhPE0os5GhIOEpdcQCK7mE4gwi58_q1k2XA_6zGqqBU-IoTfzjHuk_103&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=zSS1o6MDf%2Bodlg1Q%2B3oZnA%3D%3D&amp;trackingId=FX%2BVz1jO9yZ0H34wPL0yAg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3314480733/?eBP=JOB_SEARCH_ORGANIC&amp;refId=PFYTE75vrrJtNQwA%2FzRMTg%3D%3D&amp;trackingId=82QgDX%2BAotkfSkJ3L19etQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3314480733/?eBP=JOB_SEARCH_ORGANIC&amp;refId=vgPF75X6qbPbWjBPfptt%2BQ%3D%3D&amp;trackingId=qTQfSKi%2BTp%2FuA9epe79Wmw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3304905509/?eBP=CwEAAAGEZjQz4XsdlTTgNi_8CQDKr1Z_HbPi5Kjt81ScoNmEyZhpeDn024W-XhzAMbQj9WrOWtcV-uIm7Cn8Cnha5phtAS7KBDu2Y2MHmD7Eo_czg06636Lunmi6ZZR_hX-t83nAIngfvi6-HKQXF2huuMzPyKmWVzSQs9y_rR3lnhiw4yaAMHbfJ6Wl0gCLo0kD4nRabrWWBfrrq0lKV-bpgUNyhFaFZAMuzZOLrKDRg6JmuSGmutyTgY6I2bnSGWcjiHOd-w2dMHm8KPjAO5tu9cGZAiReFpZ431J3FFbilQPAoOkht3wLx5ifvZQIHriB0751-wCrc-zcQ_ATI6E_8QM657ZAwg&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=PFYTE75vrrJtNQwA%2FzRMTg%3D%3D&amp;trackingId=hh7jaWT%2B%2BfscmKWeqOKdAQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3304905509/?eBP=CwEAAAGEZkiaWgOG1BrtnfZdVVOCkM7ogxKlWZADuNVcvu0FyIJQGfSd77UZ-Qvi6XKNnldaeZkL9Gz7P7lpyqUtPVsDNDzcMVJFMBPc4gsVV0ZYTgpPFwyvto9C8e4Z9iDHeGouq1lNc5m6yA2cegH9ute69dsYLHKi5OKGK2c5kOmZBdRiYjJaY1Zb_YvR9aQKfQyz6n9xQsiHRXOpECiOEl3r2WTYUzix1FX49EDsParltVvNVRjVEa_2eeYKGDwRRdEfZyL0aOH721p3GRZok7x1soES1icswIj-XjO7N88GZfpQscFXce7rNJOwU6KU3veMMHirAndynuq9tlFD53W_COPA0g&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=vgPF75X6qbPbWjBPfptt%2BQ%3D%3D&amp;trackingId=mw1QQlZtnkFBA11iCvASfg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3304404862/?eBP=CwEAAAGEZjQz4UrqvHxExeuJ7bl39OkyeqAlGMqEGAT6LwNkxVBczevm3O56mrju-F2myhNtLMBCQ5m24ZngxOBZOFzj4Ny8sCssl3UNqlwMXs-zqPs8RJUfPYqqhqjSPHK27jZlMOG-7ZcKiw7rE4mCYMNzoAsDCnDYRkefr9HYNAAQgCnq7kOXpdC-iC-P5PzpTs5NDFNInN9hiZqVIsVSCjmpwKleRCSnPUs6oWbctn__rgS0p52AQSBOfku1ChOsMCSlR6kQ6-V-BsKjgPUC3taAv5VL7n4w3JdnCp7RYsV-6a6Dr8Qke73eVlwY3VcdL5YG7PcDIuZGmwJ8Tqikg5MYSeW82hDNEtSrSHyzCHHyXYyk3ZAOIqEt7Hk5ua71v7o&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=PFYTE75vrrJtNQwA%2FzRMTg%3D%3D&amp;trackingId=0xsF2FkGWNyzKRlFaofhCg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3304404862/?eBP=CwEAAAGEZkiaWo_ikC2j_MIMWtsAlSHjs2B9v6kKCKgEgyztSXWQruv3DnzUJFBx9qkBFgWQ6NxZGNlBs1S2aDox2oRgOPIyGrSMA26x_M8R6C_5-tEzUxzavnjs7b0TIY2nDKvFJUS-Cmq0povD4yYer-Pr-UDsk3OiDy2-XNOJvjwCGXz0gW9bSfUxa7ElBc57MNuS7Uyqe5xVmayUygg48KQ8ne3Z-rxQ4v_4KI93naOVtYf3MbJxUdLfJdjVOJjTHVUFW8uFUQoE9Ea6oQ-U35tXRgSYcLayQ-fCiveAASfSzZ4sae8xPIDOFSQNjT622XsYBbSs-gqPZiDrro_vLhRC4DmjkgPR_7AMAVfJNHHXJGLkLMHFie5PFDUojPKRgzQ&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=vgPF75X6qbPbWjBPfptt%2BQ%3D%3D&amp;trackingId=g%2BK49BE2B94fK9Zhblx%2B7w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3339295387/?eBP=CwEAAAGEZjQz4d0y1fFGhZVVNeZzJNrJjAuPr9ezUhw-p3aGqbo0BlSxwhJN4zzINeiFRkjYKUOLJYWaUQD5QrOlj8CAcxbJuSykzyuX_2pF0Vhh1EMfFWyH5qpXyWGk6FTgSNMfu-MWNKUyR7bp-Vlbnve64KWm2HePMrm_JXK3bnfIdYvt0UZbsVs83DoMSmNc1ycwLdpr7551Ob0Z0yEC7-oKdPfkee12OsK3GjYpmxf0zChBKTmuWW2ocu2HNW2ZuxlhLJEPHlTl_pqD2fBIYj5ESb29axgYMwaHVD8lHaU0Qc39fl4Wz5OZ5V01o36cK3pQnh4jOq4o3WxX__bKQNRudm3s5QMrfELQOTvtpZhVdS6oPK-li3gpOsZsGt1JoxCZDA&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=PFYTE75vrrJtNQwA%2FzRMTg%3D%3D&amp;trackingId=JqsjkqspCTruRcaj8LWUow%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3339295387/?eBP=CwEAAAGEZkiaWtxVXAcwWB8TauKNQF4z9u4Qe8vb0Nr-Mm8imH3bXKKUMr9y6_AueHqA6uItXxgVjcDMvPdrbzLuDSpDAhpkF2P11GPXFFsiVqConJ9Cu9DSzlwNkT4qTWJnZCjIiEGfqkelMUnRHv1bx1OgVYktRTVY_WcPraZrE_78G-I45qRUObsK9NRp1YM8wP3NbZW5fa3ErF0Z7_GLJ9NQ6R2hMKBRbultS1ml3nPdZijCpxeoRwNScuFnjA7wfb_Za7uIFaIIAsouUvIHGYAhlKE3R6Ruzlbry4J1iztyzLOboABculoYg3vYYbAWSUXf88oYlAmqQtI8Owgi7rWnpqfA6TpYV-iSJNubhj_2ocNsbjhshYogpQKEj6LEeyIpdg&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=vgPF75X6qbPbWjBPfptt%2BQ%3D%3D&amp;trackingId=wmyoPQ67H50QmUyxLeVTxg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3304276291/?eBP=CwEAAAGEZjQz4Z9DU7nAXsvAaaGeTIYc1cB-0tqlPBIDaGbY7SwTcbsT_vOSENYOM_XazDN-pGQlDXWoWzqCpifaAHrUX1ZjViRDhBDa1w_vV8-nrEFsQliejsAZFeDa6KTpkT8ofvqSl29nOnmYMFRJsjSXiU12r9kR2GK5Y-sDqZ_ilwiGDIgUfk7nr8MqbUbK307V_WzthKS4EjKn0WR_AgDtC0Vgyof8iCoQqcaVodNAr9zzeqR8qFSIuXL3RgyTZ6pPhXKQlUd9o-iAe_k0dNer69vuI7bkRqfC-co3DX2YmBErmB_CkmhiNQuGx9OnsgbOu_vaB3E_9JhmRl1r978Uv2-VUxZmYTZEp70P8zvh1q97FCNPeGr_xS9iQI4dROPkGgUm&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=PFYTE75vrrJtNQwA%2FzRMTg%3D%3D&amp;trackingId=y%2B1b1QZ1JUX7V0ukk8IXJw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3304276291/?eBP=CwEAAAGEZkiaWj9Q4vxqASKS5qxDEQQrYcPiS2BlL9H4awUEoI2I5VOCu_JNx7ratiFxISvjD7Ourtky9udpFi4KCJmPJjx4RGbXUhoQ3YWUvxLHZZQJFU6fudwFwWQvtaXYBiw5vrwOkLXIEEj5UbTUvy4bvGAcWe4o_jlqQg73Aq5w6WJgj5YDnsOgTBLeG5Q5eQgHPrXCxaxhCq7lWboRyYcYhwGgGygnuJLQJsZT-iNk6nOZgfEMs8Z2Gsj705tOON-4kIToa5o-1BrvyF8H0xtWenc28YuyLLpZR7op2UsZDNiDXfvJCeGcabtYupQA-RX5vMJB1D98ZTnrnvWPorf8OqW615liniLeY9yIpSS89UzsUrZcLNqHhGF0FHfZEbiDH5gB&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=vgPF75X6qbPbWjBPfptt%2BQ%3D%3D&amp;trackingId=y%2Fkgexh1X2cXsjKzmYUOYg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3324500550/?eBP=CwEAAAGEZjQz4eWCzl_t_BCfhIutv_HfYgNpsH9SG7VaoqiFoxtXJI9h5iwYtC7TFgULBmCktcg6jU6Y4oYa66ezpEBJpmmDOkpF-kUfPKMOyXHerQO5Nf8kv85j_GTnoUI9hcB-tebpIR-36lWyvsrb1p0UWHr5t_n_ZFYe34W24otsQFSld9oPAeKM3DgDNHrQjb6--pZN_uV43yY9cG1MOqeUca_Hrnaj6SP-6253aZ0EjikOGeKP5zehEEv9vwLHyqS3acCy0WuCt41Diia6pEVmWOSUoD3Mj37QnvvTbgsgcPUme9-hkXilDEubQQzy-6GkgAIS54ZkSuu-VXjTcFwhv9Lz_pUxtkhdaUTYBblCOLtJYsxClz3yvSeTMAW5zPejVGJi&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=PFYTE75vrrJtNQwA%2FzRMTg%3D%3D&amp;trackingId=dKvH51dmPKavJCs8KZ4uBw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3324500550/?eBP=CwEAAAGEZkiaWpnXljiMERgal6ZuhDsCKdT8W7P8HN9XHBaVRAt3GiyzpU05MRIobvXnrCJVVnyGKZRHLqLh-veVJ0wex1i1eHePH2qzJ9zu5hBL6bQD_sEZ6Pc6CHZO0ZXBz5f7lS5ciM0dTX7A6BhPrkxfiKS0egNH-t7PUDIGF55ofUbkwfGamdZqI6wTpfvVJvf6noRq7p7jbN2zp1fWDn1x2lAoo6H1Uf4kNIANcC1dRft6NtDv6wm3-hKXtRogUeT5DtwKLCDHJv-KwEEh4eRc6fRK_LhnQ94RVqrby4YZXEj-BGKsVzQ3qLGsNoDzy0m8OCcTH3ER71NK3Aj8riH6d8Aqv_CutUHAUGIEQbovKlM-Rm5flZIa12O1pokdA8XQxfMA&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=vgPF75X6qbPbWjBPfptt%2BQ%3D%3D&amp;trackingId=Z0BbNDS%2BKZL%2FxDZZiBIVQw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -980,7 +980,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3308154243/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=hCgZy6jpbuezXu9QqDkQHg%3D%3D&amp;trackingId=s3Mb8LmI1IbmAtDCJ5xnCw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3308154243/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=8gMLzNL83KX3NGReY5d7yw%3D%3D&amp;trackingId=omWjiilWVTHb2TGOYvhWQg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3330590648/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=NXLPf6c26xnwwsQqStoPEg%3D%3D&amp;trackingId=4tMjwb66sC2htev6HD0uRQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3330590648/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=sYcCwBaCntH9VMTawVs2Ig%3D%3D&amp;trackingId=WMKnk%2BxmggnXx0bJ%2BxN9eg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3330593609/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=NXLPf6c26xnwwsQqStoPEg%3D%3D&amp;trackingId=gm2wk5oRy%2FFnVcBXG7cudg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3330593609/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=sYcCwBaCntH9VMTawVs2Ig%3D%3D&amp;trackingId=2fvNabgBLwmlgrUZTrheOw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3333390812/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=NXLPf6c26xnwwsQqStoPEg%3D%3D&amp;trackingId=WkN0pUN%2BM%2BfOmysfCGgf3w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3333390812/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=sYcCwBaCntH9VMTawVs2Ig%3D%3D&amp;trackingId=BNak3Bh57u9SXywl3%2FidwA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1146,29 +1146,21 @@
           <t>punjab</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/3350345997/?eBP=JOB_SEARCH_ORGANIC&amp;refId=nNI20Lg10gFH1kiIvYiIPg%3D%3D&amp;trackingId=5CvQ0etsraVvq92QsL6Bbg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/27753505/</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Reservations Ticketing Agent</t>
+          <t>Front Office Specialist</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>South Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>TRAVEL OYTSER INDIA PRIVATE LIMITED</t>
+          <t>Dent Ally</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1188,29 +1180,21 @@
           <t>punjab</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/3310903920/?eBP=JOB_SEARCH_ORGANIC&amp;refId=nNI20Lg10gFH1kiIvYiIPg%3D%3D&amp;trackingId=rAmMJD6uFXhwlwhvKTJ96A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/74197351/</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Reservations Ticketing Agent</t>
+          <t>Receptionist</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Prime Air Global Ltd (trading as Prime Travels)</t>
+          <t>Avanta Business Centre Pvt. Ltd.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1232,32 +1216,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3345872894/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=nNI20Lg10gFH1kiIvYiIPg%3D%3D&amp;trackingId=J8uJ985HYvf1ocBTOyU7lw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3311402758/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=76eefsH%2BF0Yeqv4uz%2BLTUw%3D%3D&amp;trackingId=IhK1YwSEVd23cTY5nMXeeQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/86420220/</t>
+          <t>https://www.linkedin.com/company/14541793/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Assistant Supervisor</t>
+          <t>Back Office Staff</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Gc23</t>
+          <t>Ahoy Systems Pvt. Ltd.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
@@ -1274,27 +1258,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351734898/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=nNI20Lg10gFH1kiIvYiIPg%3D%3D&amp;trackingId=4blnwZtpuR%2BocjtIj6yYtw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3339277861/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=76eefsH%2BF0Yeqv4uz%2BLTUw%3D%3D&amp;trackingId=0n3vAANHb1vbtCuyKAx8ig%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/74740941/</t>
+          <t>https://www.linkedin.com/company/3707826/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Paid Assistant</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>First Choice Consultant Service</t>
+          <t>SIPANI &amp; ASSOCIATES</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1316,12 +1300,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351733368/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=nNI20Lg10gFH1kiIvYiIPg%3D%3D&amp;trackingId=F3zJP6%2FAsGME6de7LKI3ag%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3334520747/?eBP=JOB_SEARCH_ORGANIC&amp;refId=76eefsH%2BF0Yeqv4uz%2BLTUw%3D%3D&amp;trackingId=iOQ41tp302WYlhGXAxuq%2Bg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/83555359/</t>
+          <t>https://www.linkedin.com/company/9453979/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1331,17 +1315,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>North Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>QriteeQ</t>
+          <t>Mehra Khanna &amp; Company</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
@@ -1358,13 +1342,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3329390008/?eBP=JOB_SEARCH_ORGANIC&amp;refId=nNI20Lg10gFH1kiIvYiIPg%3D%3D&amp;trackingId=Eg20H%2BaSCFNbe5erthzlzQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3316076840/?eBP=JOB_SEARCH_ORGANIC&amp;refId=76eefsH%2BF0Yeqv4uz%2BLTUw%3D%3D&amp;trackingId=%2FxAAnzdbH%2F%2BE87U4ReDvAg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/72052053/</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Front Office Executive</t>
+          <t>Apply Now - Computer Operator /MIS and Back Office Executive</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1374,7 +1362,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Grammy Communications Pvt. Ltd.</t>
+          <t>SP Solution</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1396,28 +1384,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3350383866/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=nNI20Lg10gFH1kiIvYiIPg%3D%3D&amp;trackingId=VinYTLv5Sa7O%2BjCTV1H%2Fow%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3309287628/?eBP=JOB_SEARCH_ORGANIC&amp;refId=76eefsH%2BF0Yeqv4uz%2BLTUw%3D%3D&amp;trackingId=4Zyu8PmKkT00uw%2FwpgniBQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/13215288/</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Back Office Employee</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Renix</t>
+          <t>Digital Entrepreneurship Network e.V.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Remote</t>
         </is>
       </c>
     </row>
@@ -1434,27 +1426,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3311402758/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=5E3u75xQhYa0959v6IqUiw%3D%3D&amp;trackingId=WpM%2BbxOjbND1%2FBr6oWMbcg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3346499365/?eBP=JOB_SEARCH_ORGANIC&amp;refId=76eefsH%2BF0Yeqv4uz%2BLTUw%3D%3D&amp;trackingId=zm%2BJq4godQd4gDGQWSvLzQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/14541793/</t>
+          <t>https://www.linkedin.com/company/69214300/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Front Office Specialist</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>South Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dent Ally</t>
+          <t>Esri</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1476,34 +1468,26 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3339277861/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=5E3u75xQhYa0959v6IqUiw%3D%3D&amp;trackingId=td51fUxM502Gt9tJ7PXfYg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/3707826/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3351734361/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=76eefsH%2BF0Yeqv4uz%2BLTUw%3D%3D&amp;trackingId=QJ%2FWI%2Bb64mV%2FbLFdl%2F%2FnAw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Avanta Business Centre Pvt. Ltd.</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>On-site</t>
-        </is>
-      </c>
+          <t>Boston Consulting Group (BCG)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1518,27 +1502,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3334520747/?eBP=JOB_SEARCH_ORGANIC&amp;refId=5E3u75xQhYa0959v6IqUiw%3D%3D&amp;trackingId=5ETXYnSh8bz91frByyL0vw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3113897292/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=1MtOu5iN33jW4PRN4a1fww%3D%3D&amp;trackingId=UEuYWRfnhTi2BEnawBhUcA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/9453979/</t>
+          <t>https://www.linkedin.com/company/5311/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Back Office Staff</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Hauz Khas, Delhi, India</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ahoy Systems Pvt. Ltd.</t>
+          <t>Sealaska Constructors</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1560,27 +1544,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3316076840/?eBP=JOB_SEARCH_ORGANIC&amp;refId=5E3u75xQhYa0959v6IqUiw%3D%3D&amp;trackingId=We4pi0NrbWAeV25Ttd8dEw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3324505250/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=1MtOu5iN33jW4PRN4a1fww%3D%3D&amp;trackingId=Ko2kaZi1AMIXIkAn6L%2BGxw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/72052053/</t>
+          <t>https://www.linkedin.com/company/1784/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Paid Assistant</t>
+          <t>Back Office Executive</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>SIPANI &amp; ASSOCIATES</t>
+          <t>Being Employment</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1602,27 +1586,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3309287628/?eBP=JOB_SEARCH_ORGANIC&amp;refId=5E3u75xQhYa0959v6IqUiw%3D%3D&amp;trackingId=geKCkisQ4Yx%2FV4ZT3%2FQD6w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3348699905/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=1MtOu5iN33jW4PRN4a1fww%3D%3D&amp;trackingId=CDAmQoOJa8P26iPFY064lw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/69214300/</t>
+          <t>https://www.linkedin.com/company/1726890/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Front Desk Executive</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>North Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Mehra Khanna &amp; Company</t>
+          <t>Mvs Recruitments</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1644,34 +1628,30 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351734361/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=5E3u75xQhYa0959v6IqUiw%3D%3D&amp;trackingId=X3R1J7c8beiZbHMEwlVf9g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3326253717/?eBP=JOB_SEARCH_ORGANIC&amp;refId=1MtOu5iN33jW4PRN4a1fww%3D%3D&amp;trackingId=8wur%2Fg82aP82%2FzQE6euqDA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/13215288/</t>
+          <t>https://www.linkedin.com/company/86958034/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>General Virtual Assistant</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Delhi Cantonment, Delhi, India</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Digital Entrepreneurship Network e.V.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
+          <t>Wing Assistant</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1686,13 +1666,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3346499365/?eBP=JOB_SEARCH_ORGANIC&amp;refId=5E3u75xQhYa0959v6IqUiw%3D%3D&amp;trackingId=c2k7P5kdxLxgx2Gf4Y%2F%2BFA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3330728994/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=1MtOu5iN33jW4PRN4a1fww%3D%3D&amp;trackingId=5hOI7tKMW0kx%2Fwm%2Fu7BOxA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/82163656/</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Apply Now - Computer Operator /MIS and Back Office Executive</t>
+          <t>Front Office Executive</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1702,7 +1686,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>SP Solution</t>
+          <t>Vimuktaye Solutions</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1724,17 +1708,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3113897292/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=rGhfQ6I%2FZPvuQD4OwW82sQ%3D%3D&amp;trackingId=v4OjTz3lQaJlaCycbsfJLA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3341971047/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=1MtOu5iN33jW4PRN4a1fww%3D%3D&amp;trackingId=lLQkNL8t0XCHOYBfd8bIpg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/5311/</t>
+          <t>https://www.linkedin.com/company/7322573/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1744,7 +1728,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Esri</t>
+          <t>Paisalo Digital Limited</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1766,30 +1750,30 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3324505250/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=rGhfQ6I%2FZPvuQD4OwW82sQ%3D%3D&amp;trackingId=irVweRnMwlV0p595BO3orw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/1784/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3349851913/?eBP=JOB_SEARCH_ORGANIC&amp;refId=1MtOu5iN33jW4PRN4a1fww%3D%3D&amp;trackingId=%2FKyFGDFaMmm4xn4uGnsiqw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Boston Consulting Group (BCG)</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>Litigation work</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1804,34 +1788,30 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3348699905/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=rGhfQ6I%2FZPvuQD4OwW82sQ%3D%3D&amp;trackingId=h%2F7qpYeEa7ANRqFnTj1tvw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3355797416/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=KOtUDOcoy1%2FyNrXh3ZtTkg%3D%3D&amp;trackingId=GLahFYbsm%2B1ke0OobYsjZw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/1726890/</t>
+          <t>https://www.linkedin.com/company/1522824/</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Back Office Assistant</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Hauz Khas, Delhi, India</t>
+          <t>On-site</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sealaska Constructors</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>On-site</t>
-        </is>
-      </c>
+          <t>Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1846,17 +1826,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3326253717/?eBP=JOB_SEARCH_ORGANIC&amp;refId=rGhfQ6I%2FZPvuQD4OwW82sQ%3D%3D&amp;trackingId=javXzRIfbZo1KuEOPBDPOQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3329900995/?eBP=JOB_SEARCH_ORGANIC&amp;refId=KOtUDOcoy1%2FyNrXh3ZtTkg%3D%3D&amp;trackingId=bFeODDLHiX2OSG1%2F9wsexQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/86958034/</t>
+          <t>https://www.linkedin.com/company/6575664/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Back Office Executive</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1866,7 +1846,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Being Employment</t>
+          <t>Career Junction</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1888,27 +1868,23 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3330728994/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=rGhfQ6I%2FZPvuQD4OwW82sQ%3D%3D&amp;trackingId=coiw3Anj30zw8NmTSzPFxQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/82163656/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3291323393/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=KOtUDOcoy1%2FyNrXh3ZtTkg%3D%3D&amp;trackingId=nEKmPKos%2F2kjhYT1oU%2BsKg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Front Desk Executive</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Mvs Recruitments</t>
+          <t>TF 64</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1930,30 +1906,30 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3341971047/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=rGhfQ6I%2FZPvuQD4OwW82sQ%3D%3D&amp;trackingId=i6GbnWrc9pJ6GK0tDI2KNg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/7322573/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3307386249/?eBP=JOB_SEARCH_ORGANIC&amp;refId=KOtUDOcoy1%2FyNrXh3ZtTkg%3D%3D&amp;trackingId=BEWsSxC6foy9dzgKKPPCvA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>General Virtual Assistant</t>
+          <t>Article Assistant</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Delhi Cantonment, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Wing Assistant</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>RSAG and Co LLP</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1968,23 +1944,23 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3349851913/?eBP=JOB_SEARCH_ORGANIC&amp;refId=rGhfQ6I%2FZPvuQD4OwW82sQ%3D%3D&amp;trackingId=wdVcMSfD5y%2F%2BZktTvSstTg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3309581305/?eBP=JOB_SEARCH_ORGANIC&amp;refId=KOtUDOcoy1%2FyNrXh3ZtTkg%3D%3D&amp;trackingId=MyIM8w8BouWbQQyn2QETfA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Front Office Executive</t>
+          <t>Front Office/ Admin</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Vimuktaye Solutions</t>
+          <t>Skystone Ventures LLP</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2006,17 +1982,13 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3329900995/?eBP=JOB_SEARCH_ORGANIC&amp;refId=wYRXQb%2BwIcvtnTB1Q4cj4g%3D%3D&amp;trackingId=taaJIGXEF5bczHQbhf1Utg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/6575664/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3342566543/?eBP=JOB_SEARCH_ORGANIC&amp;refId=KOtUDOcoy1%2FyNrXh3ZtTkg%3D%3D&amp;trackingId=FA8AaMETkhW1dEp6r%2BZ4kA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Office Executive</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2026,7 +1998,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Litigation work</t>
+          <t>Complete The Square</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2048,27 +2020,23 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3291323393/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=wYRXQb%2BwIcvtnTB1Q4cj4g%3D%3D&amp;trackingId=2vcPKwwqIsrMQlT9tdt%2B5w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/9358328/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3351741338/?eBP=JOB_SEARCH_ORGANIC&amp;refId=KOtUDOcoy1%2FyNrXh3ZtTkg%3D%3D&amp;trackingId=O2MxSzGgV2eDpBI6h4RvRA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Back Office Assistant</t>
+          <t>apply now Executive Assistant and Operations Coordinator</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>ConvertKit</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -2086,17 +2054,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3307386249/?eBP=JOB_SEARCH_ORGANIC&amp;refId=wYRXQb%2BwIcvtnTB1Q4cj4g%3D%3D&amp;trackingId=e%2BnKmutbqTquXyNUFpuW9g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3320710553/?eBP=JOB_SEARCH_ORGANIC&amp;refId=uQexn5pQ3ojRvdF6X%2BgWuQ%3D%3D&amp;trackingId=V4MNklPRsH5KciZnk7b5wg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/1784/</t>
+          <t>https://www.linkedin.com/company/7641049/</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>Job openings for executive assistant in delhi bangalore pune</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2106,7 +2074,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Career Junction</t>
+          <t>Talent Zone Consultants</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2128,23 +2096,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3309581305/?eBP=JOB_SEARCH_ORGANIC&amp;refId=wYRXQb%2BwIcvtnTB1Q4cj4g%3D%3D&amp;trackingId=Nl2HsHp%2BZ3jbPcN1MqLvZw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3320715031/?eBP=JOB_SEARCH_ORGANIC&amp;refId=uQexn5pQ3ojRvdF6X%2BgWuQ%3D%3D&amp;trackingId=7jwzostnGXzOf20nzee4lQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/10816227/</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>TF 64</t>
+          <t>Unnati</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2166,23 +2138,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351724228/?eBP=JOB_SEARCH_ORGANIC&amp;refId=wYRXQb%2BwIcvtnTB1Q4cj4g%3D%3D&amp;trackingId=v75N8IDJ0QBUJap72Zzuhw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3309011761/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=uQexn5pQ3ojRvdF6X%2BgWuQ%3D%3D&amp;trackingId=8iOszH%2BWL2J3%2FBqYOqWSPg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/7967889/</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Executive Secretary</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>On-site</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ProdyoVidhi LLP</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -2200,23 +2176,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3342566543/?eBP=JOB_SEARCH_ORGANIC&amp;refId=wYRXQb%2BwIcvtnTB1Q4cj4g%3D%3D&amp;trackingId=yFfcTlknAAltp4RG54Kb3A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3315812830/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=uQexn5pQ3ojRvdF6X%2BgWuQ%3D%3D&amp;trackingId=0iBWUH6Myce%2Bax4cXUxMzA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/2317092/</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Article Assistant</t>
+          <t>Immediate joiners Executive Assistant to MD</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>RSAG and Co LLP</t>
+          <t>MNR Solutions Pvt. Ltd.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2238,26 +2218,34 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3324398747/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=wYRXQb%2BwIcvtnTB1Q4cj4g%3D%3D&amp;trackingId=tcRFfRWhgXNCSveOiPFqTw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3321238755/?eBP=JOB_SEARCH_ORGANIC&amp;refId=uQexn5pQ3ojRvdF6X%2BgWuQ%3D%3D&amp;trackingId=hl1TKrVtt3bnTC4wQscJJQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/483229/</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>personal Secretary</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Boston Consulting Group (BCG)</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
+          <t>FRADE шоколад ручной работы</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2272,27 +2260,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3309011761/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=gMIqdRDMNgXpKeB7AtcDzQ%3D%3D&amp;trackingId=MWGw%2BUGtgthFkWXmcjA3vg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3307392536/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=uQexn5pQ3ojRvdF6X%2BgWuQ%3D%3D&amp;trackingId=PXW2rzZ5k8OQeTwZwshkPQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/7967889/</t>
+          <t>https://www.linkedin.com/company/7228226/</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Job openings for executive assistant in delhi bangalore pune</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>West Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Talent Zone Consultants</t>
+          <t>Mahesh K Agarwal Co</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2314,27 +2302,23 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3315812830/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=gMIqdRDMNgXpKeB7AtcDzQ%3D%3D&amp;trackingId=I%2F3pQ%2F9T1B35CyIquA2hnw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/2317092/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3336576094/?eBP=JOB_SEARCH_ORGANIC&amp;refId=uQexn5pQ3ojRvdF6X%2BgWuQ%3D%3D&amp;trackingId=A89WR3lOs8TtTF8UDlO%2BYg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>Executive Assitant</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Unnati</t>
+          <t>Dhanadeepa Consultant Private limited</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2356,30 +2340,34 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3321238755/?eBP=JOB_SEARCH_ORGANIC&amp;refId=gMIqdRDMNgXpKeB7AtcDzQ%3D%3D&amp;trackingId=2fjG%2BDxqSxkPd8IQL3JwBw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3346466114/?eBP=JOB_SEARCH_ORGANIC&amp;refId=PkrshDIa4ZQx6HIFGSgR8Q%3D%3D&amp;trackingId=5a%2FJzGIkOWwRrp%2Bp43Q1lg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/483229/</t>
+          <t>https://www.linkedin.com/company/778511/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>Aiwa - Chief Of Staff/Executive Assistant to MD</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t>H.R. International</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2394,32 +2382,32 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3307392536/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=gMIqdRDMNgXpKeB7AtcDzQ%3D%3D&amp;trackingId=EcwTlcOrjtYD8wlc7q2E%2Fw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3348445621/?eBP=JOB_SEARCH_ORGANIC&amp;refId=PkrshDIa4ZQx6HIFGSgR8Q%3D%3D&amp;trackingId=eUNack%2BK5SL2%2FINDWPlrdQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/7228226/</t>
+          <t>https://www.linkedin.com/company/2187945/</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Immediate joiners Executive Assistant to MD</t>
+          <t>Executive Assistant To Chief Executive Officer</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>MNR Solutions Pvt. Ltd.</t>
+          <t>Gurusons Communications Pvt Ltd</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Hybrid</t>
         </is>
       </c>
     </row>
@@ -2436,17 +2424,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3336576094/?eBP=JOB_SEARCH_ORGANIC&amp;refId=gMIqdRDMNgXpKeB7AtcDzQ%3D%3D&amp;trackingId=BNdghHXzQ9qepCAA3Jr6%2Fw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3310922665/?eBP=JOB_SEARCH_ORGANIC&amp;refId=PkrshDIa4ZQx6HIFGSgR8Q%3D%3D&amp;trackingId=t8QNe5eBg7nlcuFlvdcQfA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/3064551/</t>
+          <t>https://www.linkedin.com/company/7257938/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>personal Secretary</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2456,12 +2444,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>FRADE шоколад ручной работы</t>
+          <t>Vrinda Media Lab</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Hybrid</t>
         </is>
       </c>
     </row>
@@ -2478,17 +2466,13 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3318823998/?eBP=JOB_SEARCH_ORGANIC&amp;refId=gMIqdRDMNgXpKeB7AtcDzQ%3D%3D&amp;trackingId=yPo7mugMjsK7c418jlh7OQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/82335136/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3341542564/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=PkrshDIa4ZQx6HIFGSgR8Q%3D%3D&amp;trackingId=ptfJqWzQRBH0J1ErLXO1eA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Personal Assistant to Director</t>
+          <t>Executive Administration</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2498,7 +2482,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Foxhog Ventures Corp. USA</t>
+          <t>CELLA SOLUTIONS</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2520,28 +2504,28 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3329397027/?eBP=JOB_SEARCH_ORGANIC&amp;refId=gMIqdRDMNgXpKeB7AtcDzQ%3D%3D&amp;trackingId=EgLVUPFfujjfv7VhRwP%2FWQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3086241102/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=PkrshDIa4ZQx6HIFGSgR8Q%3D%3D&amp;trackingId=a8qQSM9DZ%2FtlxPVSzKponw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Executive Assistant To CEO/Chief Of Staff - Automation and Strategic Projects</t>
+          <t>Personal Assistant</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>HRD India Consulting</t>
+          <t>Svrán Group / Apeejay Stya Group</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
@@ -2558,27 +2542,23 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3348445621/?eBP=JOB_SEARCH_ORGANIC&amp;refId=gp%2B%2BNeQ15pjsrSD3Pwi7xQ%3D%3D&amp;trackingId=SZlVWyxZU5K%2BeIR5OQvOfg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/778511/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3311947363/?eBP=JOB_SEARCH_ORGANIC&amp;refId=PkrshDIa4ZQx6HIFGSgR8Q%3D%3D&amp;trackingId=M%2FK6GD2YDgmsUljQ9eotbQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Executive Assitant</t>
+          <t>Air Hostess</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Dhanadeepa Consultant Private limited</t>
+          <t>SpiceJet Limited</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2600,27 +2580,23 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3310922665/?eBP=JOB_SEARCH_ORGANIC&amp;refId=gp%2B%2BNeQ15pjsrSD3Pwi7xQ%3D%3D&amp;trackingId=R3qHsGF8rpuVxMziEl5NpQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/2187945/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3351740227/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=PkrshDIa4ZQx6HIFGSgR8Q%3D%3D&amp;trackingId=tUD%2FGHDIjMLNMCih%2Fg%2BEzQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Aiwa - Chief Of Staff/Executive Assistant to MD</t>
+          <t>Air Hostess</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>H.R. International</t>
+          <t>SpiceJet Limited</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2632,7 +2608,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Reservation and Ticketing Agent</t>
+          <t>Ground Operation Staff</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2642,39 +2618,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3341542564/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=gp%2B%2BNeQ15pjsrSD3Pwi7xQ%3D%3D&amp;trackingId=o3hgUa7vLV3rNMrmZ%2Bz4aA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3319496364/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=R92cyXQlVD9dVB6sE%2BjrMg%3D%3D&amp;trackingId=hU5HEJRa370VH8cBR6nxSw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/7257938/</t>
+          <t>https://www.linkedin.com/company/108293/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Executive Assistant To Chief Executive Officer</t>
+          <t>Assistant Supervisor</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Gurusons Communications Pvt Ltd</t>
+          <t>Gc23</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Reservation and Ticketing Agent</t>
+          <t>Cabin Crew/Flight Attendant</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2684,17 +2660,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3086241102/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=gp%2B%2BNeQ15pjsrSD3Pwi7xQ%3D%3D&amp;trackingId=Ro4MU42ASAus58H8%2FjdJGA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3319496364/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=0JLlsKxjQyVNe6AjsCk9UA%3D%3D&amp;trackingId=Vh1GwS2M0xWXWa%2BCr5O1fw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/11297193/</t>
+          <t>https://www.linkedin.com/company/108293/</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Receptionist</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2704,19 +2680,19 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Vrinda Media Lab</t>
+          <t>First Choice Consultant Service</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Reservation and Ticketing Agent</t>
+          <t>Cabin Crew/Flight Attendant</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2726,23 +2702,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3311947363/?eBP=JOB_SEARCH_ORGANIC&amp;refId=gp%2B%2BNeQ15pjsrSD3Pwi7xQ%3D%3D&amp;trackingId=GFQIMQglNWUks1z5I8ap1g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3345872894/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=0JLlsKxjQyVNe6AjsCk9UA%3D%3D&amp;trackingId=Jn690MxuwfunLHzMBEY54Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/74197351/</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Executive Administration</t>
+          <t>Back Office Employee</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>CELLA SOLUTIONS</t>
+          <t>Renix</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2754,7 +2734,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Reservation and Ticketing Agent</t>
+          <t>Cabin Crew/Flight Attendant</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2764,35 +2744,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351740227/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=gp%2B%2BNeQ15pjsrSD3Pwi7xQ%3D%3D&amp;trackingId=sbPZRyaF9%2BhGOKzyngJS%2Bw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3351734898/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=0JLlsKxjQyVNe6AjsCk9UA%3D%3D&amp;trackingId=ps%2BsnYYX2mn%2FSbk%2FlPdMRA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/83555359/</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Personal Assistant</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Svrán Group / Apeejay Stya Group</t>
+          <t>QriteeQ</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Reservation and Ticketing Agent</t>
+          <t>Cabin Crew/Flight Attendant</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2802,35 +2786,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3336109812/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=gp%2B%2BNeQ15pjsrSD3Pwi7xQ%3D%3D&amp;trackingId=i7YqmiJjII70TZS9tzS5bA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3350383866/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=0JLlsKxjQyVNe6AjsCk9UA%3D%3D&amp;trackingId=PY7MgJ83k1GkuiFTBtbUHg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/86420220/</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>Receptionist</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>rePurpose Global</t>
+          <t>Kroll</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ground Operation Staff</t>
+          <t>Cabin Crew/Flight Attendant</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2840,27 +2828,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3319496364/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=7Ry6gWL%2BZrm%2F3avSVaGXBA%3D%3D&amp;trackingId=Qq0Wk2OCgyIoj7UXIn%2Ft9w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3351733368/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=0JLlsKxjQyVNe6AjsCk9UA%3D%3D&amp;trackingId=lQFPpmCCPXH4I1RDgqDVAA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/108293/</t>
+          <t>https://www.linkedin.com/company/164639/</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Air Hostess</t>
+          <t>Front Office Specialist</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>South Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>SpiceJet Limited</t>
+          <t>Dent Ally</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2882,27 +2870,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3319496364/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=z9lyJVyax2vCYHtwtw91zQ%3D%3D&amp;trackingId=hGLA4dxlAcjJcrzvjg%2BtQw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3304404862/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=0JLlsKxjQyVNe6AjsCk9UA%3D%3D&amp;trackingId=C9MHnMn5YKbAsoIzi8%2B7vw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/108293/</t>
+          <t>https://www.linkedin.com/company/14541793/</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Air Hostess</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>North Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>SpiceJet Limited</t>
+          <t>Mehra Khanna &amp; Company</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2924,32 +2912,28 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3345872894/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=z9lyJVyax2vCYHtwtw91zQ%3D%3D&amp;trackingId=Mk8XtW5f6Cxigv6YmNN21w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/86420220/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3311402758/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=0JLlsKxjQyVNe6AjsCk9UA%3D%3D&amp;trackingId=FZPDcTN0SGC5FL8rKpXN%2BA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Assistant Supervisor</t>
+          <t>ADMIN INTERN</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Gc23</t>
+          <t>Rock &amp; Storm Distilleries Private Limited</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
@@ -2966,32 +2950,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351733368/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=z9lyJVyax2vCYHtwtw91zQ%3D%3D&amp;trackingId=ACA%2BD6pNHx0Fa98Kkh%2B0%2FA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3309287628/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Dof8uLI5MfWQNvG9wX%2B%2B7g%3D%3D&amp;trackingId=cSAsSUsPcO1ob1zk3Fwb9Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/74197351/</t>
+          <t>https://www.linkedin.com/company/72052053/</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Back Office Staff</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>QriteeQ</t>
+          <t>Ahoy Systems Pvt. Ltd.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
@@ -3008,27 +2992,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351734898/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=z9lyJVyax2vCYHtwtw91zQ%3D%3D&amp;trackingId=i990%2F7vT35xGvNc0IY2YCA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3325170402/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=Dof8uLI5MfWQNvG9wX%2B%2B7g%3D%3D&amp;trackingId=5ZpQPyCUB5rsCfkRwhXY5w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/83555359/</t>
+          <t>https://www.linkedin.com/company/33725738/</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Front Office Executive</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>First Choice Consultant Service</t>
+          <t>Grammy Communications Pvt. Ltd.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3050,17 +3034,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3350383866/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=z9lyJVyax2vCYHtwtw91zQ%3D%3D&amp;trackingId=Ne1ksR%2BE7E%2Fk3sntjFTxZg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3334520747/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Dof8uLI5MfWQNvG9wX%2B%2B7g%3D%3D&amp;trackingId=voGkN52HCsRSC6%2BQFIIyUA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/31052571/</t>
+          <t>https://www.linkedin.com/company/9453979/</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Back Office Employee</t>
+          <t>Paid Assistant</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3070,7 +3054,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Renix</t>
+          <t>SIPANI &amp; ASSOCIATES</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3092,27 +3076,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3345865696/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=z9lyJVyax2vCYHtwtw91zQ%3D%3D&amp;trackingId=KNVXbW4jJXg29mYktIvjfA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3329390008/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Dof8uLI5MfWQNvG9wX%2B%2B7g%3D%3D&amp;trackingId=0gTw1X3FtRLVSbCrD3gzpw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/164639/</t>
+          <t>https://www.linkedin.com/company/74740941/</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Front Office Intern</t>
+          <t>Front Office Receptionist</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Hauz Khas, Delhi, India</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Votan Ventures</t>
+          <t>Multimind Creations</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3134,23 +3118,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3304404862/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=z9lyJVyax2vCYHtwtw91zQ%3D%3D&amp;trackingId=aMeZtJSN%2FpYgaGyTpfcXqQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3316076840/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Dof8uLI5MfWQNvG9wX%2B%2B7g%3D%3D&amp;trackingId=Mlmyl8BewUhXH0O1yPjSeQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/3294645/</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Front Desk Receptionist</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Saket, Delhi, India</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Kroll</t>
+          <t>Studio Blue Hill</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3172,17 +3160,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3339277861/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=s%2B6SY58sJqacRNW6UiO%2BCA%3D%3D&amp;trackingId=0hgl%2FmvCJDxaBLPb%2FL6Anw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3338733252/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Dof8uLI5MfWQNvG9wX%2B%2B7g%3D%3D&amp;trackingId=z2No1hNHlqq8IQ4X3u5PkA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/3707826/</t>
+          <t>https://www.linkedin.com/company/86824158/</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Data Entry Operator</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3192,7 +3180,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Avanta Business Centre Pvt. Ltd.</t>
+          <t>Three Fox</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3214,27 +3202,23 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3309287628/?eBP=JOB_SEARCH_ORGANIC&amp;refId=s%2B6SY58sJqacRNW6UiO%2BCA%3D%3D&amp;trackingId=Cj6E8OnkcIjDSJFfnTTEug%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/72052053/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3353988478/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Dof8uLI5MfWQNvG9wX%2B%2B7g%3D%3D&amp;trackingId=Yd%2B29KvPhQ1SXIIP8JsOhQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>CIEL/SEL/25721: Executive Assistant</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>North Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Mehra Khanna &amp; Company</t>
+          <t>CIEL HR</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3256,17 +3240,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3325170402/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=s%2B6SY58sJqacRNW6UiO%2BCA%3D%3D&amp;trackingId=WxHrn11cEBWLA80fTJawOg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3348818793/?eBP=JOB_SEARCH_ORGANIC&amp;refId=MhkfDv5Z7z1IB1NaCGQcZg%3D%3D&amp;trackingId=%2BS7M0Z5cAEIaRB5hAuAGag%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/33725738/</t>
+          <t>https://www.linkedin.com/company/10083363/</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ADMIN INTERN</t>
+          <t>company secretary Interns</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3276,7 +3260,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Rock &amp; Storm Distilleries Private Limited</t>
+          <t>Pecuniã Innovations®</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3298,27 +3282,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3334520747/?eBP=JOB_SEARCH_ORGANIC&amp;refId=s%2B6SY58sJqacRNW6UiO%2BCA%3D%3D&amp;trackingId=6o%2BuY4Jl8Vr8ryZeEqxmpg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3339482991/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=MhkfDv5Z7z1IB1NaCGQcZg%3D%3D&amp;trackingId=0dz3tYnRnTCH9ZCpbVWtNg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/9453979/</t>
+          <t>https://www.linkedin.com/company/77072083/</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Back Office Staff</t>
+          <t>Administrative Assistant (Contractor)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Ahoy Systems Pvt. Ltd.</t>
+          <t>Lockheed Martin</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3340,17 +3324,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3329390008/?eBP=JOB_SEARCH_ORGANIC&amp;refId=s%2B6SY58sJqacRNW6UiO%2BCA%3D%3D&amp;trackingId=TEvom6PxeigzDSYwo681HA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3347996504/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=MhkfDv5Z7z1IB1NaCGQcZg%3D%3D&amp;trackingId=G5dhELnmb2jZjsUdEBI4Ng%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/74740941/</t>
+          <t>https://www.linkedin.com/company/1319/</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Front Office Executive</t>
+          <t>General Virtual Assistant (Part-Time)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3360,12 +3344,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Grammy Communications Pvt. Ltd.</t>
+          <t>Wing Assistant</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Remote</t>
         </is>
       </c>
     </row>
@@ -3382,27 +3366,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3316076840/?eBP=JOB_SEARCH_ORGANIC&amp;refId=s%2B6SY58sJqacRNW6UiO%2BCA%3D%3D&amp;trackingId=HoqqzgGiHTO5EUVCU0FcRQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3341211418/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=MhkfDv5Z7z1IB1NaCGQcZg%3D%3D&amp;trackingId=exTAZzzEG6FXxjJOGOR5TQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/3294645/</t>
+          <t>https://www.linkedin.com/company/7322573/</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Paid Assistant</t>
+          <t>Dental Receptionist</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>West Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>SIPANI &amp; ASSOCIATES</t>
+          <t>Dr.Anil Gulatis multi-speciality dental clinic</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3424,23 +3408,23 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3338733252/?eBP=JOB_SEARCH_ORGANIC&amp;refId=s%2B6SY58sJqacRNW6UiO%2BCA%3D%3D&amp;trackingId=mQCLktQP%2FDoFxZH6ZDW3iQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3319226668/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=MhkfDv5Z7z1IB1NaCGQcZg%3D%3D&amp;trackingId=dLlnEQs1dzrXPXtUP%2FgnCg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Front Office Receptionist</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Hauz Khas, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Multimind Creations</t>
+          <t>Litigation work</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3462,17 +3446,13 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3333385938/?eBP=JOB_SEARCH_ORGANIC&amp;refId=czxFMnN8CXBPw8oqsPoR4Q%3D%3D&amp;trackingId=HyzSflasu1U%2Fz4uij6vGRQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/1934357/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3336170122/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=MhkfDv5Z7z1IB1NaCGQcZg%3D%3D&amp;trackingId=AMykY53MsSzP%2FqnZS7YbqQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Personal Secretary female fresher</t>
+          <t>Back Office Executive</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3482,10 +3462,14 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>ZaranTech</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr"/>
+          <t>Business Employment</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3500,27 +3484,23 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3348818793/?eBP=JOB_SEARCH_ORGANIC&amp;refId=czxFMnN8CXBPw8oqsPoR4Q%3D%3D&amp;trackingId=i3una7Xm3LUZEbJuAaz0Nw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/10083363/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3329900995/?eBP=JOB_SEARCH_ORGANIC&amp;refId=MhkfDv5Z7z1IB1NaCGQcZg%3D%3D&amp;trackingId=Y5fY7jbWBo41xS4GfMqVgQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Data Entry Operator</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Three Fox</t>
+          <t>DJNK &amp; CO LLP</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3542,27 +3522,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3339482991/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=czxFMnN8CXBPw8oqsPoR4Q%3D%3D&amp;trackingId=11XOCARmeYPE9qE7CyngGA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3342289281/?eBP=JOB_SEARCH_ORGANIC&amp;refId=31y5lyWmLJOIgsLVFj%2FdVQ%3D%3D&amp;trackingId=F61yKQAlkSrklvEfxj07Bw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/77072083/</t>
+          <t>https://www.linkedin.com/company/86947942/</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CIEL/SEL/25721: Executive Assistant</t>
+          <t>Personal Assistant to Director</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>CIEL HR</t>
+          <t>Kashmir Loom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3584,27 +3564,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3347996504/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=czxFMnN8CXBPw8oqsPoR4Q%3D%3D&amp;trackingId=dXhbfkxsUMWqOqLegTrXYA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3349834110/?eBP=JOB_SEARCH_ORGANIC&amp;refId=31y5lyWmLJOIgsLVFj%2FdVQ%3D%3D&amp;trackingId=5KrBYDk5lbwf9ffqsaazxg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/1319/</t>
+          <t>https://www.linkedin.com/company/30938121/</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>company secretary Interns</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Pecuniã Innovations®</t>
+          <t>TF 64</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3626,27 +3606,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3341211418/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=czxFMnN8CXBPw8oqsPoR4Q%3D%3D&amp;trackingId=G6ah8%2FhMVrUIg6ZiKkn9Kg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3318697663/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=31y5lyWmLJOIgsLVFj%2FdVQ%3D%3D&amp;trackingId=%2BpWOOlPasGUoj3TrR%2Fyevg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/7322573/</t>
+          <t>https://www.linkedin.com/company/2317092/</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Administrative Assistant (Contractor)</t>
+          <t>Back Office Employee</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lockheed Martin</t>
+          <t>EGLH Facilities</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3668,30 +3648,26 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3319226668/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=czxFMnN8CXBPw8oqsPoR4Q%3D%3D&amp;trackingId=29QbbDz7c0tzmxfFsxQ8lQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3309581305/?eBP=JOB_SEARCH_ORGANIC&amp;refId=31y5lyWmLJOIgsLVFj%2FdVQ%3D%3D&amp;trackingId=iXCtygGu8FN3ctnV2v%2Fr6g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>General Virtual Assistant (Part-Time)</t>
+          <t>Back Office Assistant</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>On-site</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Wing Assistant</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
+          <t>Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3706,23 +3682,23 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3336170122/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=czxFMnN8CXBPw8oqsPoR4Q%3D%3D&amp;trackingId=Din0SVXvLvTSd%2BqtJawoiQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3334589294/?eBP=JOB_SEARCH_ORGANIC&amp;refId=31y5lyWmLJOIgsLVFj%2FdVQ%3D%3D&amp;trackingId=khDeEAMqUvDGjVoxNPUFvw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Dental Receptionist</t>
+          <t>Office Administrator</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>West Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Dr.Anil Gulatis multi-speciality dental clinic</t>
+          <t>Unnati</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3742,24 +3718,32 @@
           <t>punjab</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3291323393/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=31y5lyWmLJOIgsLVFj%2FdVQ%3D%3D&amp;trackingId=8goHF31JfCVT0018BO67bw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Executive Secretary</t>
+          <t>Female Executive Assistant</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ProdyoVidhi LLP</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
+          <t>Opulence Consulting Group</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3772,21 +3756,25 @@
           <t>punjab</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3315806756/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=31y5lyWmLJOIgsLVFj%2FdVQ%3D%3D&amp;trackingId=k4HAGJriOqletha3cmtvYQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Female Executive Assistant</t>
+          <t>Front Desk Executive</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Opulence Consulting Group</t>
+          <t>Creative group LLP</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3806,28 +3794,32 @@
           <t>punjab</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3307935045/?eBP=JOB_SEARCH_ORGANIC&amp;refId=cNVyLRjWkyWeml%2Be4gveeg%3D%3D&amp;trackingId=CfpL5IQ6HVwGOzw8IP4G3w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/9395799/</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Front Desk Executive</t>
+          <t>Executive Secretary</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Creative group LLP</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>On-site</t>
-        </is>
-      </c>
+          <t>ProdyoVidhi LLP</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3840,21 +3832,29 @@
           <t>punjab</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3341574812/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=cNVyLRjWkyWeml%2Be4gveeg%3D%3D&amp;trackingId=ChJ4GRaNIQINlWMjvfJbVA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/9358328/</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Personal Assistant to Director</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Foxhog Ventures Corp. USA</t>
+          <t>Paisalo Digital Limited</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3874,21 +3874,29 @@
           <t>punjab</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3351724228/?eBP=JOB_SEARCH_ORGANIC&amp;refId=cNVyLRjWkyWeml%2Be4gveeg%3D%3D&amp;trackingId=RQY5yWD7EozPR6FPl3G%2F%2FQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/1522824/</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>Personal Assistant to Director</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Paisalo Digital Limited</t>
+          <t>Foxhog Ventures Corp. USA</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3908,8 +3916,16 @@
           <t>punjab</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3355797416/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=cNVyLRjWkyWeml%2Be4gveeg%3D%3D&amp;trackingId=5Hy5vSoNJgj%2FvzFZ5VWUrg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/3064551/</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>Admin Executive</t>
@@ -3944,17 +3960,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351724228/?refId=Ry3CvD1A%2BnBV8UQXCUc6jA%3D%3D&amp;trackingId=kPZfa2l1asxQ00pLJQ9KfQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3318823998/?eBP=JOB_SEARCH_ORGANIC&amp;refId=cNVyLRjWkyWeml%2Be4gveeg%3D%3D&amp;trackingId=jieLegOIHjn2gaofvlHOYA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/9358328/</t>
+          <t>https://www.linkedin.com/company/27901162/</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Lecturers in Chemistry (Energetic Materials and Energetic Materials Forensics)</t>
+          <t>Personal Secretary</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3964,7 +3980,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>UNSW</t>
+          <t>Visaglobal</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3986,27 +4002,23 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3307935045/?refId=Ry3CvD1A%2BnBV8UQXCUc6jA%3D%3D&amp;trackingId=1siM345TK8TZ4kYufrZwhw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/9395799/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3333386979/?eBP=JOB_SEARCH_ORGANIC&amp;refId=cNVyLRjWkyWeml%2Be4gveeg%3D%3D&amp;trackingId=%2BhtpuexYRu49l7BsQsbeeQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Editorial Reviewer - Materials Sciences</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Cactus Communications</t>
+          <t>rePurpose Global</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4028,32 +4040,28 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3341574812/?refId=Ry3CvD1A%2BnBV8UQXCUc6jA%3D%3D&amp;trackingId=FNUsdkSjT3A%2B034sqZhOlQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/3064551/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3332118484/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=cNVyLRjWkyWeml%2Be4gveeg%3D%3D&amp;trackingId=QIhcayCZijYXjFCZYLvkQA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Editorial Reviewer - Materials engineering</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Cactus Communications</t>
+          <t>Veneklasen Associates, Inc.</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Hybrid</t>
         </is>
       </c>
     </row>
@@ -4070,32 +4078,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3318823998/?refId=Ry3CvD1A%2BnBV8UQXCUc6jA%3D%3D&amp;trackingId=cKDmvcStNdD%2BsybBnKinSg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3336109812/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=l2NaCR0JOTQvR86ik%2BWVBw%3D%3D&amp;trackingId=8H89n87oHTEFvqzqphAZrA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/1522824/</t>
+          <t>https://www.linkedin.com/company/11297193/</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Editorial Reviewer, Chemistry and Materials Science (Work-from-home)</t>
+          <t>Front Desk Reception Internship in Delhi at Multimind Creations</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Cactus Communications</t>
+          <t>Multimind Creations</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Hybrid</t>
         </is>
       </c>
     </row>
@@ -4112,27 +4120,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3355797416/?refId=Ry3CvD1A%2BnBV8UQXCUc6jA%3D%3D&amp;trackingId=UTW%2Fyi22NJmsPzdwXiYlVA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3347955017/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=l2NaCR0JOTQvR86ik%2BWVBw%3D%3D&amp;trackingId=WktWRj%2BXmXD1KbEMBSxqGA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/27901162/</t>
+          <t>https://www.linkedin.com/company/660041/</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Materials Engineer (OOK)</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Bechtel Corporation</t>
+          <t>Nitika Gujral</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4154,65 +4162,61 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3333386979/?refId=Ry3CvD1A%2BnBV8UQXCUc6jA%3D%3D&amp;trackingId=nGD5%2F7SC2%2BTZfsKkMna8Jw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3347973258/?eBP=JOB_SEARCH_ORGANIC&amp;refId=l2NaCR0JOTQvR86ik%2BWVBw%3D%3D&amp;trackingId=y%2BUq%2BhTc7PMy9rXioBQ5HQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/3294645/</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Territory Manager</t>
+          <t>Executive Assistant to Executive</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>On-site</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Veeam Software</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>On-site</t>
-        </is>
-      </c>
+          <t>Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Aerospace Materials Specialist</t>
+          <t>Cabin Crew/Flight Attendant</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>punjab</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3340013856/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=vvO%2FrWufogzH%2BOnJF446gQ%3D%3D&amp;trackingId=HEbNLVRaRj1boHc7e0dbfg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/6096/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3346448034/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=l2NaCR0JOTQvR86ik%2BWVBw%3D%3D&amp;trackingId=rViC3hvBQuDlXHY4%2BpA07w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Cleaning staff</t>
+          <t>Executive Assitant</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Gopi Restaurant</t>
+          <t>Dhanadeepa Consultant Private limited</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4224,65 +4228,61 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Aerospace Materials Specialist</t>
+          <t>Cabin Crew/Flight Attendant</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>punjab</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3334194462/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=vvO%2FrWufogzH%2BOnJF446gQ%3D%3D&amp;trackingId=pDI%2FPweTAD9W%2BbLWTzfFnQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/58396/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3321241451/?eBP=JOB_SEARCH_ORGANIC&amp;refId=l2NaCR0JOTQvR86ik%2BWVBw%3D%3D&amp;trackingId=%2Fe3DZbLN8Ao55pANcOg11g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CTS Specialist</t>
+          <t>Executive Administration</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Open Area, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Accenture in India</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
+          <t>CELLA SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Aerospace Materials Specialist</t>
+          <t>Cabin Crew/Flight Attendant</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>punjab</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3334189881/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=vvO%2FrWufogzH%2BOnJF446gQ%3D%3D&amp;trackingId=njGK3kzIJGQysogBdBFgww%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/58396/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3348445621/?eBP=JOB_SEARCH_ORGANIC&amp;refId=l2NaCR0JOTQvR86ik%2BWVBw%3D%3D&amp;trackingId=V%2Fa5OUW51tt6tD%2FaHV3I7Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Lecturers in Chemistry (Energetic Materials and Energetic Materials Forensics)</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Kroll</t>
+          <t>UNSW</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4304,27 +4304,23 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Aerospace Materials Specialist</t>
+          <t>Cabin Crew/Flight Attendant</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>punjab</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3233755411/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=vvO%2FrWufogzH%2BOnJF446gQ%3D%3D&amp;trackingId=bQgHolFv6rmwbYaB8dZqtg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/58396/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3311947363/?eBP=JOB_SEARCH_ORGANIC&amp;refId=l2NaCR0JOTQvR86ik%2BWVBw%3D%3D&amp;trackingId=9%2F7Vs2qKZ3P4%2FQpyFSpOoA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Assistant Manager - Housekeeping</t>
+          <t>Editorial Reviewer - Materials Sciences</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4334,12 +4330,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Hyatt Regency</t>
+          <t>Cactus Communications</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Remote</t>
         </is>
       </c>
     </row>
@@ -4356,17 +4352,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3248375918/?eBP=CwEAAAGEZjU1CE7KJVibzsMMBGPjwhbJge_6pm8WkYG6DyNjzSbTBmq6cUkXXxvH-O_q639ZzMu1fhYf3I7oUxofPc7jXGBfEjV2TTPBliHMj-488YDtwAQqfZqZkQLXH4nugfvCtepc96CJV1RsT8lphfy1poBmGQljbA6_l_CCA0iRchs9WpnyVCKGPNMxbqGz59_JWpl270vAzTFeMAFOHtDJOlGMqGVCWZftVVVLGQKwFqF4RaalOWudlpzce0w4QLVYLjd_QTMdt5p520TIoE48d6D6BfwZvfUWVVMc8PUZRiGwJS4Gnc5U6k7odUr_AzLZ6wAX5eRtocEFYO_PEzs8ceZ1HmPeQGFcmaNlPGQ_8-ZAl_NWVCMz0LbtCc5FBhnH3g&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=vvO%2FrWufogzH%2BOnJF446gQ%3D%3D&amp;trackingId=x4Hdcsll8t5jZMljeXZCoA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3340013856/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=jVT1aJ378pTw%2BG0c0Lh0xA%3D%3D&amp;trackingId=tEPHeQCMn7sG%2Fs8sxsF7Hg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/3304/</t>
+          <t>https://www.linkedin.com/company/6096/</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Subject Matter Expert</t>
+          <t>Editorial Reviewer - Materials engineering</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4376,12 +4372,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Chegg India</t>
+          <t>Cactus Communications</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Remote</t>
         </is>
       </c>
     </row>
@@ -4398,35 +4394,39 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3313003458/?eBP=CwEAAAGEZjU1CM9D4SQQwobYeBxsxrEOuvlBAJn7RKMabRSuNXZVB7cT677aVorVvJdL1gol4B48j20eKiRB84efJmMDgCBt052KdFhPfwgZIZF1IUCF3KSzPUKc_17qOOA4E1OwL6BrMya9dxloxu14Z8DBPlY2kCFDhRA3jlzOur-XSoPmTXBNvqDf4BGH8mrZo9ZxBfuO33kCMztT3u59J-PMd_6mxjXFE462YwnnvUnoA_5M7IAuoHrim3ipuVrWLRw7aZj1up_Eanzhmx3S_vxXd3_flgSiPesX4tVbkiNfZXLdfK6qKelHOzxdX5ca9s-bapINcqxMGpsaq5JyqqpWwGY522W55HEzy0Afi2Vsa9LxzXlddrH1xEKbTeMHJYnICwpw&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=vvO%2FrWufogzH%2BOnJF446gQ%3D%3D&amp;trackingId=lgwMU1O%2BZh%2FGZjzFwNfY4g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3334194462/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=jVT1aJ378pTw%2BG0c0Lh0xA%3D%3D&amp;trackingId=sW%2BG3hfAuFr2LCplYXiRBg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/236413/</t>
+          <t>https://www.linkedin.com/company/58396/</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Specialist</t>
+          <t>Editorial Reviewer, Chemistry and Materials Science (Work-from-home)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Boston Consulting Group (BCG)</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr"/>
+          <t>Cactus Communications</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Aircraft Cleaner</t>
+          <t>Aerospace Materials Specialist</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4436,17 +4436,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3314480733/?eBP=JOB_SEARCH_ORGANIC&amp;refId=l6aHbYwlo3zq3ILsS%2BdEYQ%3D%3D&amp;trackingId=zmPZTiYKTD8I%2FtjUQq7H3A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3334189881/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=jVT1aJ378pTw%2BG0c0Lh0xA%3D%3D&amp;trackingId=TebzusKpzEKP0iWH30HXDQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/9215331/</t>
+          <t>https://www.linkedin.com/company/58396/</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Junior Technician - Base Maintenance</t>
+          <t>Materials Engineer (OOK)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>IndiGo (InterGlobe Aviation Ltd)</t>
+          <t>Bechtel Corporation</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4468,7 +4468,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Aircraft Cleaner</t>
+          <t>Aerospace Materials Specialist</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4478,27 +4478,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3304905509/?eBP=CwEAAAGEZjVQamwYzbimMCUWPzU4_9UyLYBpKZsThDIL6RqzII62NbIJK6DzJ5tRzcxgz2V90EX_6L32KJW90tgZW3yi9Jt3F5D6tz2eqyzmML6IeqgPphK5EgZpyBzjrpkqDATtcHpzKbOFSJFTM9yDOyYTFHfoGGUarb_WifoZn7qDuyHylN1lI39I5gG-7hIclRYY4e2FgRitzlbgABE30t7MtLLLnQNoQ48X71r9RZvZcHtFj-rX8w4db0uvPVEHKaBwf_Daod0U3WAVyVEH7qqyWbzEdpWL9PNYSLqYTPqut6e071SkXXJf2DsoYTWJ5zIUC_ove2hGV120uu6Dx_ljOrvsrg&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=l6aHbYwlo3zq3ILsS%2BdEYQ%3D%3D&amp;trackingId=FkNPKHHxlNE7ciC0nX7Rkw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3233755411/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=jVT1aJ378pTw%2BG0c0Lh0xA%3D%3D&amp;trackingId=70jen%2FjoyXuuxtQr7XTtUA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/164639/</t>
+          <t>https://www.linkedin.com/company/58396/</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>CIEL/SEL/23471: Fleet Manager</t>
+          <t>Territory Manager</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>CIEL HR</t>
+          <t>Veeam Software</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4510,7 +4510,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Aircraft Cleaner</t>
+          <t>Aerospace Materials Specialist</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4520,17 +4520,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3304404862/?eBP=CwEAAAGEZjVQash4QuYMOeAFJIuNsP0zMek7ZQH_1KhwqOPe20_9G9HdRHaiLZ94--dNKDY8_UMzyVNQz-pq6wBFx0l4cIFk4xKSOxK1zqtRUxtVWVeEbvTf5Av53nm02PSxaieVXqvDTP4ANrfZ3nqIAetyIC9gb1gxn19G07_LP4yedQfb_IdSYqOtDLEsSXkqRdZ4XWi1d2fQfTYAr4iuziEql1PMXabrnnkLv6FU8VYJgeWRGgVfY3WC00nCxYJdAPgrHRfCAkCSVVCIpCFSZNA1-purcmjkrzwURzVxN8BfSNwh9SUJFpMonIxxQWp_EM0RP8X1aOCdOLP86HVEMKzNGiRqKtR7cE6o7YqMoJHKbvB-qZ2zZNBYDa54c_KGx_4&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=l6aHbYwlo3zq3ILsS%2BdEYQ%3D%3D&amp;trackingId=RxllVqFunJao5mhNjvkYVw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3248375918/?eBP=CwEAAAGEZkm3N_mNGnSk4FbAmSErb7KOVyvKquE6M0BhHEaPwrsRb6z8jXt8JFiuyYCDpBnRwEXBu7mt9yGRHV_mEgpqA9GrAU0t1vrw9-x-bYejhQFeLqw3n3tk6bOJitmfAujEG54qknGBFv4HJSO7U860-ufgwBz6NBtVn5SU-7aIOuhh6chiak54QYAz3LHLlNlWLZBwRAGk3wW8Q5s2nwIfncyDGm_sTNzhUsmX13s5Ny9yLhXkiE1I_FQKkK52czc5EPvIh1nw34qox9HfIV_hTZ_lXmMEiyff1-aUU98hfMk9NuIyd5dh1eY0gMwERJgVObZOVPnroM6T8ye76xMeGZ2Bduxuzf8ZOP5WDIlp1o-24OGiZkKmeRgN4Spclws&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=jVT1aJ378pTw%2BG0c0Lh0xA%3D%3D&amp;trackingId=KM8hF0xs%2BGsrwQdmvZE2XQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/3135/</t>
+          <t>https://www.linkedin.com/company/3304/</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>CIEL/SEL/24096: Fleet Manager NCR</t>
+          <t>Cleaning staff</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>CIEL HR</t>
+          <t>Gopi Restaurant</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4552,7 +4552,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Aircraft Cleaner</t>
+          <t>Aerospace Materials Specialist</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4562,34 +4562,30 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3339295387/?eBP=CwEAAAGEZjVQamWfKi3uDVDfSLmcSorX5zI3z4sj-aDg4qLBweUxQTHQcDpZkMDSsIWfrRcDBrxpcgEn8r8PGsrR25jQpPZeFA60-l_z9y0UHyOg6BESXiiROM8O6LrOkjN-5DCrHwZLyqVUXG1mgi-8H3bynNz8y9FWd5jkeJmYhJliK4CJmlcyaF_nIv2StdykYQE5GQrMglSM1Ex6LjuxWPAMaC8Y43o7JfySiCAfwcES6Nlliulc0O2dlxn-H7csUxuvE6Lm_O3j-LTD4puUX8LsFMiMn4bSwpizQLrBLbl_lbkKiNdmKKyBtMCLxCIBBuoiPuhWgTFdBtUZQI6J8ymobCxSYhCuTBTnN4X_Wo42xfaV6PghVehJRtrsEilZHnF3IQ&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=l6aHbYwlo3zq3ILsS%2BdEYQ%3D%3D&amp;trackingId=0pieu3xOdf5xMv4%2BIjQg1Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3313003458/?eBP=CwEAAAGEZkm3N5mIg9LYsCaNqgGq9zo_02oT2645rGFwmxfv5oHKjbaONCKjtjvPb-lZkUx5_RzwYlUOdS4Vj5Km2QuG9yw8DXFTRqXb0hW0m7r7QRydzDa0_PspjwW1SoEF9QN89lNF1hpkSpT57iAjL-QFHSz0-amda1-AcZa7AiHPpzcwuBjUlnStXfqj4SO7eS9FGgOn9UldN6Sjmu2liF5aAhqmO6rV8PxCpUQNuTu3HRgAo4dMPoS140TKufOcBZyN1UDvOhM0qlaytLOslIssPIGrBWkJCfuwmiAHULWiLnsXcMAkuXyQzDvKt1a7gbegFllCnRg8Iv5-5XKjRIZdvzdx8_iJt6uCgv4j7eOTJXSJBEXY7oaHKYbqx251ptwmnA&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=jVT1aJ378pTw%2BG0c0Lh0xA%3D%3D&amp;trackingId=U6aCHLWCGpq5Y6BbcViEbg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/75141745/</t>
+          <t>https://www.linkedin.com/company/236413/</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Server hardware Engineer</t>
+          <t>CTS Specialist</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Delhi Cantonment, Delhi, India</t>
+          <t>Open Area, Delhi, India</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Orbit Techsol</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Hybrid</t>
-        </is>
-      </c>
+          <t>Accenture in India</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4604,27 +4600,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3304276291/?eBP=CwEAAAGEZjVQa39c_3CQcRFakgS-VZa5YfBU8qneJbK4DTBfd6F8c4bhmk_QfGRkp6ROHE4xtu8313v0EcBWYsjfUVzXwsOTfDHyUY0bub-nnwVM9kVEWZJ70aEJNnVlpvFsJlaBf6a2lSYgl748gQzLoklRhFKVByQ5cLm9EmDtg0buptadM6e_wuCamCqETEUSTK8I5uy4b5m0xhgm_P0SFlEVAMn2YzHraw_MY9A20tgmOrHmNklpo_TbnfaGecyXNIR7pbwn1864EvMxXoKHb1Q3WoQ7F9SLDvyozlpy-clr6B4tRoMtaaXH7fzAf6rDtoIE_Xj3SJ3mgDFyq9xMbpwzoEahUn3MiyGKyF_k0ut36u4Q_vuEDdG8mjVZrZTNRlAGRomG&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=l6aHbYwlo3zq3ILsS%2BdEYQ%3D%3D&amp;trackingId=x8VmaLHugmGHJKjrp4rfMA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3314480733/?eBP=JOB_SEARCH_ORGANIC&amp;refId=NNxJSrcKmFgpGn070EYM8A%3D%3D&amp;trackingId=CwP0W2JXM5%2BC6xbiA8Fasw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/1784/</t>
+          <t>https://www.linkedin.com/company/9215331/</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Reservations Ticketing Agent</t>
+          <t>Receptionist</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>TRAVEL OYTSER INDIA PRIVATE LIMITED</t>
+          <t>Kroll</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4646,23 +4642,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3324500550/?eBP=CwEAAAGEZjVQax6pw_E7Z8T1qH_RcMZzP1emGZiAP0FuYYmEr9wNCOPh1KxzASl89SaZ6Y99u_l91lS6Cybvvs7dC_rd7e-XE47Keyy--exLcw1ZAFqwB6IU4ilCWHqeLcTEKRNePeMRziFG7cj5LuFAROC0ENsdHsuwBleyJL08N8TsxPzwsHjuhn5sH0gUBG8pa55dF_OJM_ScXmT4sDCGGQZVZ5NtRarPRpz8aCAmy1INs1hqLhGPjhmDsZDROUdr58YowsY0ykJHDx8z2r3eY-lvjTROQLTp6aQ2SSxO7vP-Kx7SWkl75A8j8z80GPNYJs4pIgcW8mqXA8hLR5NeN9D4ygnYB2rqxuUxhsFm5fJRLqyI0bXMnjcg1RKMG3H7woE9OQLC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=l6aHbYwlo3zq3ILsS%2BdEYQ%3D%3D&amp;trackingId=3G5G9Sya0fdg7ykPfZathw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3304905509/?eBP=CwEAAAGEZknUQUtOzKWZ6B7riIyZK9mGKC2Azxkw3mjV6gJaxCQY43wt9A13yktg86VbGMTLzMmMepNmqnci9cwCWM5WuMgs9DPYUFXSmDnj1WI3gWAiJGOqrx8Zn3kM_1kN4qpO_Vk632yhimRnoH3a_mQDSaShicOQrbX0YHmMRXRsCW52P6AyZgpdh-owsjLnP97kKT7EPp7rARD90iuauoT8P-T2puyVxQg4v7-JI0ffBGKgN-tz5TQ2pNFCcGuxffE8a0pPmXuLYb2UL7WCdh9S8vojLDqkvwqgA4sTR0JjnA-UPQN4Pr-m8yk27GjwbPMXT0ap7ZqFDPICcumNzNvYHfY&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=NNxJSrcKmFgpGn070EYM8A%3D%3D&amp;trackingId=arKZiMTHhM1seBIajzdqyg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/164639/</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Reservations Ticketing Agent</t>
+          <t>Assistant Manager - Housekeeping</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Prime Air Global Ltd (trading as Prime Travels)</t>
+          <t>Hyatt Regency</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4674,7 +4674,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Aircraft Maintenance Technician</t>
+          <t>Aircraft Cleaner</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4684,39 +4684,39 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3308154243/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=dvPlA8YC0ViqArgT3fBjZA%3D%3D&amp;trackingId=0f8I9GSz53%2B5wTDU9yywDQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3304404862/?eBP=CwEAAAGEZknUQVXl9rkkxz7kPPo_wPT0yKARa1sxQbbbKNZh_ewfpUS3c7OhoL5yxJSM90xcsRg4bo45Fa4rYIVJbNa7Dnq26qTP986FvyVMIXXK1WwFNLIN2Jeajem7WEFBc7BtLdJjlaRm7Vnq4mJXRTukY3uDSpRfgjvyotEHW4oJpRObti-C2mnwAMrcuUaecnfk8Q5E4cXFv9eLwzje5eLoCGxNVqH2VcOgfu-HDb4Gvz1wgNJ9bP5Fg2FfyteN9hN-cyHMnCYaG_7NSwhSDdZFFKm-D6tGj37VmHprJEdrCMzBxt71Bz57JvxkEe7RUVwgJlHtHKx3SRd89JTKJwwVusE8fAdeZRExoHEJWn1r5DFab47IPooZmcIaGscy&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=NNxJSrcKmFgpGn070EYM8A%3D%3D&amp;trackingId=SqLEeRz9D5BXWxJbncIYOQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/91609/</t>
+          <t>https://www.linkedin.com/company/3135/</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Subject Matter Expert</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>QriteeQ</t>
+          <t>Chegg India</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Terminal Operations Manager</t>
+          <t>Aircraft Cleaner</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4726,39 +4726,35 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3330590648/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=2Yvd7phjrgGe%2FKhDI%2FRqnA%3D%3D&amp;trackingId=%2BEZv59IoSeg0p9Y2pj7YLA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3339295387/?eBP=CwEAAAGEZknUQS0_-pbiE2Sdejm7DATKauzDHN2En4YyDAlvXL45hByrd-9NTl5o-M-e-A8lJrGaIRF_KcrPvfY_uIm-c_JgdpLB0el5Xq6VggxwNEGVexSMurEYS7_x4wpAh02MQ2J6HPxZM3k-YqYjwRa8devZp2Us3iRJr_dQ3YgnbUrrdAfdPR8Bg750zMdwZQlS2ChMHWrUuNw5SqxwrM1f8MRzHjFzdQGY4IJ_4XvwOY_9qlZ3-VCxd2UhmEmw6CkEga7RDwpO042HjC_hlTlKf_RbzKFzcAbkgbqY39vtiZFXuj3BrAbBuFFKoOrZk9bxJ4tm7UybFMvQBhl_hCcxr1nORuyyE-8kpJsKLUuaRtNBdBR_lAEBJbmsEPWxOBw&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=NNxJSrcKmFgpGn070EYM8A%3D%3D&amp;trackingId=%2FTfehwNfCa3gweUoIRcxDQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/10083363/</t>
+          <t>https://www.linkedin.com/company/75141745/</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Assistant Supervisor</t>
+          <t>Specialist</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Gc23</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
+          <t>Boston Consulting Group (BCG)</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Terminal Operations Manager</t>
+          <t>Aircraft Cleaner</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4768,27 +4764,27 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3330593609/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=2Yvd7phjrgGe%2FKhDI%2FRqnA%3D%3D&amp;trackingId=%2BMLBD8obH9gqoN4XfRjFNQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3304276291/?eBP=CwEAAAGEZknUQbI92rv7IglR9UXPZEuuikxlVqb-_n-kw7yUwakGnlhRMJ-J6qxK62jAulB3DYxIX9TDBVwn2QGpwwsA4M5HgCaSfKGp0V5R5dPr20yrhoRHp09iMKiDccELKNghBxgG6VngIe8wL04ujvJJzOcpyJcpucIp2s77sSR6-x4YIfgqtuXsx0z7yJVIEz3nZx1wncc36aLa61s7XGJ2F5EyR_1n7dGTg40roEJAjYKYFzXQqJNUSo1QJgePwtkexvW6IjxaP7jUkSQ3iXEJK4Yr8KOsscKYjUYGI9XxDqOV26moJSkGN5bkmeA3zyTiuF71BvT505_yqoZuZdiP8QXD1RH1QGWXB818wulv5hIY15OrNr1DQJZ91iD9OwxFRg&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=NNxJSrcKmFgpGn070EYM8A%3D%3D&amp;trackingId=jAQrrc5j7mPxLrkoX7OD3g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/10083363/</t>
+          <t>https://www.linkedin.com/company/1784/</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Junior Technician - Base Maintenance</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>First Choice Consultant Service</t>
+          <t>IndiGo (InterGlobe Aviation Ltd)</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4800,7 +4796,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Terminal Operations Manager</t>
+          <t>Aircraft Cleaner</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4810,17 +4806,13 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3333390812/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=2Yvd7phjrgGe%2FKhDI%2FRqnA%3D%3D&amp;trackingId=oRCd8PVfZDDC0uIYU5wXEw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/864840/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3324500550/?eBP=CwEAAAGEZknUQfos-HWDEHRSB-eyicjg8-JjnNvyZ9-evReD-_IRETsE4RbbTlmuoh46oIoFT1VkcEjiQRZ_fp3LEyBaP43mu-5o2cYYL3UCpiWxc2OtcTU70nusuy0FFy88Y6ot_DtDTDp_tPh6eI6ONGPpkpYE_-JbyAQK2uVt2nhOMH6HXhPtzEc9UbQnXVIGfD-48AoUS1Jw5iTQEs_3pI2vjAFdG5BgM8YCoN0dWR1LzS3EJYQJicVjs12STjx9jxhzhA79MUXZ-5AvT2cJwZQT9j1ryDwa3CkOKveN0LYqZ2LZggq_xHWcdyVFBVCYLUs4OdMtOOLevGoRbRWVwjYC4mkSjGH_W8W07C-pdk0hW_RRORFSaOxVSeUaYL63ci7MyA&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=NNxJSrcKmFgpGn070EYM8A%3D%3D&amp;trackingId=LLgDwfLa94wQ6hO6OBEYIA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Front Office Executive</t>
+          <t>CIEL/SEL/23471: Fleet Manager</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4830,7 +4822,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Grammy Communications Pvt. Ltd.</t>
+          <t>CIEL HR</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4842,7 +4834,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Reservation and Ticketing Agent</t>
+          <t>Aircraft Maintenance Technician</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4852,27 +4844,27 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3350345997/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Zci7kabJTRCjscvXiid10Q%3D%3D&amp;trackingId=3ynxS0L1%2FITOC7CDAGafLA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3308154243/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=2SNH6RkrbgdK5RHDIvVeIw%3D%3D&amp;trackingId=BSxmm2%2FRK%2BT7C7dTyYInmA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/27753505/</t>
+          <t>https://www.linkedin.com/company/91609/</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Back Office Employee</t>
+          <t>CIEL/SEL/24096: Fleet Manager NCR</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Renix</t>
+          <t>CIEL HR</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -4884,7 +4876,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Reservation and Ticketing Agent</t>
+          <t>Terminal Operations Manager</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4894,39 +4886,39 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3310903920/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Zci7kabJTRCjscvXiid10Q%3D%3D&amp;trackingId=4hVCU303b8UTt1VjdL9Sbw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3330590648/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=U6vDPQA5jTkpvMMaEQ5kZA%3D%3D&amp;trackingId=0TP7zUl6DKYTJ4td%2BK5W4Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/86420220/</t>
+          <t>https://www.linkedin.com/company/10083363/</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Front Office Specialist</t>
+          <t>Server hardware Engineer</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>South Delhi, Delhi, India</t>
+          <t>Delhi Cantonment, Delhi, India</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Dent Ally</t>
+          <t>Orbit Techsol</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Hybrid</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Reservation and Ticketing Agent</t>
+          <t>Terminal Operations Manager</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4936,27 +4928,27 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351733368/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=Zci7kabJTRCjscvXiid10Q%3D%3D&amp;trackingId=bHfYh%2F5Tje4x%2BNVMxlGQng%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3330593609/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=U6vDPQA5jTkpvMMaEQ5kZA%3D%3D&amp;trackingId=QfKpbc5GJaLVYBpk9NYfoA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/74197351/</t>
+          <t>https://www.linkedin.com/company/10083363/</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Reservations Ticketing Agent</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Avanta Business Centre Pvt. Ltd.</t>
+          <t>TRAVEL OYTSER INDIA PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4968,7 +4960,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Reservation and Ticketing Agent</t>
+          <t>Terminal Operations Manager</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4978,27 +4970,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3345872894/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=Zci7kabJTRCjscvXiid10Q%3D%3D&amp;trackingId=WRx9Ye4bVEu3fTXbmVO3xQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3333390812/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=U6vDPQA5jTkpvMMaEQ5kZA%3D%3D&amp;trackingId=yVMWfUIJOKT8O3Yr5uZvGA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/74740941/</t>
+          <t>https://www.linkedin.com/company/864840/</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Back Office Staff</t>
+          <t>Reservations Ticketing Agent</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Ahoy Systems Pvt. Ltd.</t>
+          <t>Prime Air Global Ltd (trading as Prime Travels)</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5020,32 +5012,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351734898/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=Zci7kabJTRCjscvXiid10Q%3D%3D&amp;trackingId=ib92rDcxnJx35iV8SajwEQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3350345997/?eBP=JOB_SEARCH_ORGANIC&amp;refId=D438SQpHJStzl5%2B4%2FDE12g%3D%3D&amp;trackingId=IhjPVDrUd5%2BhPQOwsKuacg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/83555359/</t>
+          <t>https://www.linkedin.com/company/27753505/</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Paid Assistant</t>
+          <t>Assistant Supervisor</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>SIPANI &amp; ASSOCIATES</t>
+          <t>Gc23</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Remote</t>
         </is>
       </c>
     </row>
@@ -5062,23 +5054,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3329390008/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Zci7kabJTRCjscvXiid10Q%3D%3D&amp;trackingId=OPVoHkSVq8Fh%2ByBg0MgqRg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3310903920/?eBP=JOB_SEARCH_ORGANIC&amp;refId=D438SQpHJStzl5%2B4%2FDE12g%3D%3D&amp;trackingId=vgbAwKlzo0y0ev9CFQQVMA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/74197351/</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Receptionist</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>North Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Mehra Khanna &amp; Company</t>
+          <t>First Choice Consultant Service</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5100,28 +5096,32 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3350383866/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=Zci7kabJTRCjscvXiid10Q%3D%3D&amp;trackingId=HN9NqYwSVOjci5%2FvWS0kZA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3345872894/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=D438SQpHJStzl5%2B4%2FDE12g%3D%3D&amp;trackingId=cnXYoAPgt8rjAZVxCqGk4Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/86420220/</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Apply Now - Computer Operator /MIS and Back Office Executive</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>SP Solution</t>
+          <t>QriteeQ</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Remote</t>
         </is>
       </c>
     </row>
@@ -5138,32 +5138,32 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3311402758/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=tz3fbyVKlcJX7HgvXn0ygg%3D%3D&amp;trackingId=QfpsvuzMOT%2B16s4hyJe8TQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3351734898/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=D438SQpHJStzl5%2B4%2FDE12g%3D%3D&amp;trackingId=2%2F9nkXuZuI6b%2BEP3jYKICg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/14541793/</t>
+          <t>https://www.linkedin.com/company/74740941/</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Front Office Executive</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Digital Entrepreneurship Network e.V.</t>
+          <t>Grammy Communications Pvt. Ltd.</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
@@ -5180,17 +5180,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3339277861/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=tz3fbyVKlcJX7HgvXn0ygg%3D%3D&amp;trackingId=wCxx4e75iC5J4eV8E26X0w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3351733368/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=D438SQpHJStzl5%2B4%2FDE12g%3D%3D&amp;trackingId=pFvmANE8gjKe44mFc5oh1Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/3707826/</t>
+          <t>https://www.linkedin.com/company/83555359/</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Back Office Employee</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Esri</t>
+          <t>Renix</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5222,30 +5222,30 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3334520747/?eBP=JOB_SEARCH_ORGANIC&amp;refId=tz3fbyVKlcJX7HgvXn0ygg%3D%3D&amp;trackingId=EhngHoQY1ISj8ZiiSr96Lw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/9453979/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3329390008/?eBP=JOB_SEARCH_ORGANIC&amp;refId=D438SQpHJStzl5%2B4%2FDE12g%3D%3D&amp;trackingId=%2BPEzWfcnauzGifdQgegggg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Front Office Specialist</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>South Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Boston Consulting Group (BCG)</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr"/>
+          <t>Dent Ally</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5260,27 +5260,23 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3316076840/?eBP=JOB_SEARCH_ORGANIC&amp;refId=tz3fbyVKlcJX7HgvXn0ygg%3D%3D&amp;trackingId=vE3FIXEUn20ZRncA9PjWig%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/72052053/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3350383866/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=D438SQpHJStzl5%2B4%2FDE12g%3D%3D&amp;trackingId=SWkcfv8sLcP%2B1V28WtDJ%2BQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Receptionist</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Hauz Khas, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Sealaska Constructors</t>
+          <t>Avanta Business Centre Pvt. Ltd.</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5302,17 +5298,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3309287628/?eBP=JOB_SEARCH_ORGANIC&amp;refId=tz3fbyVKlcJX7HgvXn0ygg%3D%3D&amp;trackingId=Si7Z8SrFVjW7naNyq6BcpQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3311402758/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=ycTzoqFk4E8h%2FUbL9Fmp2A%3D%3D&amp;trackingId=J4VMnedyKAQjBg3YF4jyiw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/13215288/</t>
+          <t>https://www.linkedin.com/company/14541793/</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Back Office Executive</t>
+          <t>Back Office Staff</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -5322,7 +5318,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Being Employment</t>
+          <t>Ahoy Systems Pvt. Ltd.</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5344,27 +5340,27 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3346499365/?eBP=JOB_SEARCH_ORGANIC&amp;refId=tz3fbyVKlcJX7HgvXn0ygg%3D%3D&amp;trackingId=Hlv1vZiWl8KMYf32%2BJUcGw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3339277861/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=ycTzoqFk4E8h%2FUbL9Fmp2A%3D%3D&amp;trackingId=4Hr4AtqraCPIPv14TrOpYg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/69214300/</t>
+          <t>https://www.linkedin.com/company/3707826/</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Front Desk Executive</t>
+          <t>Paid Assistant</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Mvs Recruitments</t>
+          <t>SIPANI &amp; ASSOCIATES</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5386,26 +5382,34 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351734361/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=tz3fbyVKlcJX7HgvXn0ygg%3D%3D&amp;trackingId=iNDskzT%2BeUiwjdcbi%2FJqTA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3334520747/?eBP=JOB_SEARCH_ORGANIC&amp;refId=ycTzoqFk4E8h%2FUbL9Fmp2A%3D%3D&amp;trackingId=gN3u0IdSv8tZiG3VlD3Tog%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/9453979/</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>General Virtual Assistant</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Delhi Cantonment, Delhi, India</t>
+          <t>North Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Wing Assistant</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr"/>
+          <t>Mehra Khanna &amp; Company</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5420,17 +5424,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3113897292/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=8Kq3B6Dq0NSasX%2FnY%2FuAjQ%3D%3D&amp;trackingId=wgAufCHcfjx6HXEuzSdSng%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3316076840/?eBP=JOB_SEARCH_ORGANIC&amp;refId=ycTzoqFk4E8h%2FUbL9Fmp2A%3D%3D&amp;trackingId=7G%2F9cCDrOqObI7fd5giybQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/5311/</t>
+          <t>https://www.linkedin.com/company/72052053/</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Front Office Executive</t>
+          <t>Apply Now - Computer Operator /MIS and Back Office Executive</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5440,7 +5444,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Vimuktaye Solutions</t>
+          <t>SP Solution</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5462,32 +5466,32 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3324505250/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=8Kq3B6Dq0NSasX%2FnY%2FuAjQ%3D%3D&amp;trackingId=eqgpjWYdF%2FSBcsB3NWTbPQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3309287628/?eBP=JOB_SEARCH_ORGANIC&amp;refId=ycTzoqFk4E8h%2FUbL9Fmp2A%3D%3D&amp;trackingId=aO0Rd7Zzp6TdWxiSwPV8Hg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/1784/</t>
+          <t>https://www.linkedin.com/company/13215288/</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Office 365</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Litigation work</t>
+          <t>Tata Consultancy Services</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Hybrid</t>
         </is>
       </c>
     </row>
@@ -5504,30 +5508,34 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3348699905/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=8Kq3B6Dq0NSasX%2FnY%2FuAjQ%3D%3D&amp;trackingId=QB1ZRJDWOcECkAeFh87c2w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3346499365/?eBP=JOB_SEARCH_ORGANIC&amp;refId=ycTzoqFk4E8h%2FUbL9Fmp2A%3D%3D&amp;trackingId=84uQwj4WxnZt8Xo8lvGS%2Fg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/1726890/</t>
+          <t>https://www.linkedin.com/company/1353/</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Back Office Assistant</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr"/>
+          <t>Esri</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5542,17 +5550,13 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3326253717/?eBP=JOB_SEARCH_ORGANIC&amp;refId=8Kq3B6Dq0NSasX%2FnY%2FuAjQ%3D%3D&amp;trackingId=QhRA2Ifl91FNWfJv22GFpQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/86958034/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3326557896/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=ycTzoqFk4E8h%2FUbL9Fmp2A%3D%3D&amp;trackingId=mw9YiknWnaNV%2FsqCOSPIbA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5562,14 +5566,10 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Paisalo Digital Limited</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>On-site</t>
-        </is>
-      </c>
+          <t>Boston Consulting Group (BCG)</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5584,27 +5584,27 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3330728994/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=8Kq3B6Dq0NSasX%2FnY%2FuAjQ%3D%3D&amp;trackingId=9LnqHWOef7CfR6BsPCeh2A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3113897292/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=byJBxUXlkLIkMtcb432BAg%3D%3D&amp;trackingId=U%2FRbL1VcLOPmw4N56IH6bA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/82163656/</t>
+          <t>https://www.linkedin.com/company/5311/</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Hauz Khas, Delhi, India</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Career Junction</t>
+          <t>Sealaska Constructors</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5626,27 +5626,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3341971047/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=8Kq3B6Dq0NSasX%2FnY%2FuAjQ%3D%3D&amp;trackingId=NTQ6kN8%2FKPAEJPukUmxwJA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3324505250/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=byJBxUXlkLIkMtcb432BAg%3D%3D&amp;trackingId=fMSIROf%2BHDZjFC0zI9C2GA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/7322573/</t>
+          <t>https://www.linkedin.com/company/1784/</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Back Office Executive</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>TF 64</t>
+          <t>Being Employment</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5668,26 +5668,34 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3349851913/?eBP=JOB_SEARCH_ORGANIC&amp;refId=8Kq3B6Dq0NSasX%2FnY%2FuAjQ%3D%3D&amp;trackingId=FGwqL4pw09menSTon7d9Yg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3348699905/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=byJBxUXlkLIkMtcb432BAg%3D%3D&amp;trackingId=GBF3BFJkU2Q4ZAqt1Ut6JA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/1726890/</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Executive Secretary</t>
+          <t>Front Desk Executive</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>ProdyoVidhi LLP</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr"/>
+          <t>Mvs Recruitments</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5702,34 +5710,30 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3329900995/?eBP=JOB_SEARCH_ORGANIC&amp;refId=i3KtGjzZ1Z5nHjwxesoz2w%3D%3D&amp;trackingId=4fgBxcMp2pJsyIFa5S0JhQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3326253717/?eBP=JOB_SEARCH_ORGANIC&amp;refId=byJBxUXlkLIkMtcb432BAg%3D%3D&amp;trackingId=e82cLg5MY7GOx0EfsbQS3w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/1522824/</t>
+          <t>https://www.linkedin.com/company/86958034/</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Article Assistant</t>
+          <t>General Virtual Assistant</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi Cantonment, Delhi, India</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>RSAG and Co LLP</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>On-site</t>
-        </is>
-      </c>
+          <t>Wing Assistant</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5744,17 +5748,17 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3291323393/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=i3KtGjzZ1Z5nHjwxesoz2w%3D%3D&amp;trackingId=GkAd06346SY8V2rk%2Bw3LiA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3330728994/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=byJBxUXlkLIkMtcb432BAg%3D%3D&amp;trackingId=N6Ypl57XFfvpVGR%2BWmH9UQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/6575664/</t>
+          <t>https://www.linkedin.com/company/82163656/</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>apply now Executive Assistant and Operations Coordinator</t>
+          <t>Front Office Executive</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5764,10 +5768,14 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>ConvertKit</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr"/>
+          <t>Vimuktaye Solutions</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5782,27 +5790,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3355797416/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=i3KtGjzZ1Z5nHjwxesoz2w%3D%3D&amp;trackingId=mvqHeGCCBUMMQMZbNyzL7w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3341971047/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=byJBxUXlkLIkMtcb432BAg%3D%3D&amp;trackingId=BLqBwbbjqZa32MSkrRYo0A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/9358328/</t>
+          <t>https://www.linkedin.com/company/7322573/</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Job openings for executive assistant in delhi bangalore pune</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Talent Zone Consultants</t>
+          <t>Paisalo Digital Limited</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -5824,13 +5832,13 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3307386249/?eBP=JOB_SEARCH_ORGANIC&amp;refId=i3KtGjzZ1Z5nHjwxesoz2w%3D%3D&amp;trackingId=cgRJ4wyfEKyu3%2F%2FZbOO4gw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3349851913/?eBP=JOB_SEARCH_ORGANIC&amp;refId=byJBxUXlkLIkMtcb432BAg%3D%3D&amp;trackingId=zUSy2Famq%2Bccu8yiGaqp9A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5840,7 +5848,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Unnati</t>
+          <t>Litigation work</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -5862,13 +5870,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3309581305/?eBP=JOB_SEARCH_ORGANIC&amp;refId=i3KtGjzZ1Z5nHjwxesoz2w%3D%3D&amp;trackingId=gwCZ8%2F2Pt%2B01PshgVPBpjQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3355797416/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=3PfQF7V6jEn8krm7ZLdUZA%3D%3D&amp;trackingId=dKeK7wsrR00wk%2BLUBfvgrQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/1522824/</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>Back Office Assistant</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5896,13 +5908,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351724228/?eBP=JOB_SEARCH_ORGANIC&amp;refId=i3KtGjzZ1Z5nHjwxesoz2w%3D%3D&amp;trackingId=zUryCxLCNzYtjxO0X9zpiA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3329900995/?eBP=JOB_SEARCH_ORGANIC&amp;refId=3PfQF7V6jEn8krm7ZLdUZA%3D%3D&amp;trackingId=OMShT54rGl3Nh8oSx0KqUg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/6575664/</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Immediate joiners Executive Assistant to MD</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5912,7 +5928,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>MNR Solutions Pvt. Ltd.</t>
+          <t>Career Junction</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -5934,13 +5950,13 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3342566543/?eBP=JOB_SEARCH_ORGANIC&amp;refId=i3KtGjzZ1Z5nHjwxesoz2w%3D%3D&amp;trackingId=AAqcehL%2BL2Yvxm4YskM3BA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3291323393/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=3PfQF7V6jEn8krm7ZLdUZA%3D%3D&amp;trackingId=7YLPZ3Zi9X1bn3qsp0WY6Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>personal Secretary</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5950,7 +5966,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>FRADE шоколад ручной работы</t>
+          <t>TF 64</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -5972,17 +5988,13 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3320715031/?eBP=JOB_SEARCH_ORGANIC&amp;refId=BHvf9vX59TY7X0IaK%2Bg0Cg%3D%3D&amp;trackingId=atJtqf4mjQWVHsky1SyP8Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/10816227/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3307386249/?eBP=JOB_SEARCH_ORGANIC&amp;refId=3PfQF7V6jEn8krm7ZLdUZA%3D%3D&amp;trackingId=vv3jfhqwWrAt%2BrvQaNJnqQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Personal Assistant to Director</t>
+          <t>Article Assistant</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5992,7 +6004,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Foxhog Ventures Corp. USA</t>
+          <t>RSAG and Co LLP</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6014,27 +6026,23 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3309011761/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=BHvf9vX59TY7X0IaK%2Bg0Cg%3D%3D&amp;trackingId=eHXICjtaLB9nRRZTVcdg%2FQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/7967889/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3309581305/?eBP=JOB_SEARCH_ORGANIC&amp;refId=3PfQF7V6jEn8krm7ZLdUZA%3D%3D&amp;trackingId=WuoO9VofcpjhuMQicA6%2BMw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Front Office/ Admin</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>West Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Mahesh K Agarwal Co</t>
+          <t>Skystone Ventures LLP</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6056,27 +6064,23 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3315812830/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=BHvf9vX59TY7X0IaK%2Bg0Cg%3D%3D&amp;trackingId=NDjM54a12UUgThWEOs1E2Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/2317092/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3342566543/?eBP=JOB_SEARCH_ORGANIC&amp;refId=3PfQF7V6jEn8krm7ZLdUZA%3D%3D&amp;trackingId=zRJhN5sXfy7LDcMyWYE%2FUw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Executive Assitant</t>
+          <t>Office Executive</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Dhanadeepa Consultant Private limited</t>
+          <t>Complete The Square</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -6098,17 +6102,13 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3321238755/?eBP=JOB_SEARCH_ORGANIC&amp;refId=BHvf9vX59TY7X0IaK%2Bg0Cg%3D%3D&amp;trackingId=GC81ML5jrbVcocPgRlJUqw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/483229/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3351741338/?eBP=JOB_SEARCH_ORGANIC&amp;refId=3PfQF7V6jEn8krm7ZLdUZA%3D%3D&amp;trackingId=xRPiF%2FzAua6jNE2KPQh8RA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Aiwa - Chief Of Staff/Executive Assistant to MD</t>
+          <t>apply now Executive Assistant and Operations Coordinator</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -6118,14 +6118,10 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>H.R. International</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>On-site</t>
-        </is>
-      </c>
+          <t>ConvertKit</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6140,32 +6136,32 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3307392536/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=BHvf9vX59TY7X0IaK%2Bg0Cg%3D%3D&amp;trackingId=VGQRMlHXKDA6h%2BN90ZshIQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3320710553/?eBP=JOB_SEARCH_ORGANIC&amp;refId=CKfbdP%2B6d0sL8vw3eVBygQ%3D%3D&amp;trackingId=USBsZI7a1oFFtc9gCIAA6A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/7228226/</t>
+          <t>https://www.linkedin.com/company/7641049/</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Executive Assistant To Chief Executive Officer</t>
+          <t>Job openings for executive assistant in delhi bangalore pune</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Gurusons Communications Pvt Ltd</t>
+          <t>Talent Zone Consultants</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
@@ -6182,32 +6178,32 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3336576094/?eBP=JOB_SEARCH_ORGANIC&amp;refId=BHvf9vX59TY7X0IaK%2Bg0Cg%3D%3D&amp;trackingId=iC5XrVQ21txN290rFK0vQw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3320715031/?eBP=JOB_SEARCH_ORGANIC&amp;refId=CKfbdP%2B6d0sL8vw3eVBygQ%3D%3D&amp;trackingId=pp93fTbov%2F2uqU9q1f%2BN6A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/3064551/</t>
+          <t>https://www.linkedin.com/company/10816227/</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Vrinda Media Lab</t>
+          <t>Unnati</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
@@ -6224,30 +6220,30 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3318823998/?eBP=JOB_SEARCH_ORGANIC&amp;refId=BHvf9vX59TY7X0IaK%2Bg0Cg%3D%3D&amp;trackingId=wSbh62Oy1%2FqaNgHgUoFc%2FA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3309011761/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=CKfbdP%2B6d0sL8vw3eVBygQ%3D%3D&amp;trackingId=5kArJehT77iXV2HOJZHAAQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/7967889/</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Executive Administration</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>On-site</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>CELLA SOLUTIONS</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>On-site</t>
-        </is>
-      </c>
+          <t>Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6262,27 +6258,27 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3346466114/?eBP=JOB_SEARCH_ORGANIC&amp;refId=lxfouOv5x9jhsKP1Bd%2Ba7g%3D%3D&amp;trackingId=jlueJXAzfEgcX4tytYhnhg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3315812830/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=CKfbdP%2B6d0sL8vw3eVBygQ%3D%3D&amp;trackingId=l%2FDgHyJrs0jV1cfQC40NAg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/778511/</t>
+          <t>https://www.linkedin.com/company/2317092/</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Personal Assistant</t>
+          <t>Immediate joiners Executive Assistant to MD</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Svrán Group / Apeejay Stya Group</t>
+          <t>MNR Solutions Pvt. Ltd.</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6304,27 +6300,27 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3348445621/?eBP=JOB_SEARCH_ORGANIC&amp;refId=lxfouOv5x9jhsKP1Bd%2Ba7g%3D%3D&amp;trackingId=INQfDpM81tjHxyYZI5UkMA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3321238755/?eBP=JOB_SEARCH_ORGANIC&amp;refId=CKfbdP%2B6d0sL8vw3eVBygQ%3D%3D&amp;trackingId=nglVZ0jjmBC52AqB78GXKg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/2187945/</t>
+          <t>https://www.linkedin.com/company/483229/</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Air Hostess</t>
+          <t>personal Secretary</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>SpiceJet Limited</t>
+          <t>FRADE шоколад ручной работы</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -6346,27 +6342,27 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3310922665/?eBP=JOB_SEARCH_ORGANIC&amp;refId=lxfouOv5x9jhsKP1Bd%2Ba7g%3D%3D&amp;trackingId=Bc0mwEuUySP%2Fy1JKfz2T0A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3307392536/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=CKfbdP%2B6d0sL8vw3eVBygQ%3D%3D&amp;trackingId=xyR9IvOG5ZrnIInXFrHGbA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/7257938/</t>
+          <t>https://www.linkedin.com/company/7228226/</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Air Hostess</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>West Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>SpiceJet Limited</t>
+          <t>Mahesh K Agarwal Co</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6388,28 +6384,28 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3341542564/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=lxfouOv5x9jhsKP1Bd%2Ba7g%3D%3D&amp;trackingId=ppFl%2B0iKe0QV7DCBFihE5g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3336576094/?eBP=JOB_SEARCH_ORGANIC&amp;refId=CKfbdP%2B6d0sL8vw3eVBygQ%3D%3D&amp;trackingId=RUG2mBxsfTz5wr2WEo1QDQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Assistant Supervisor</t>
+          <t>Executive Assitant</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Gc23</t>
+          <t>Dhanadeepa Consultant Private limited</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
@@ -6426,23 +6422,27 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3086241102/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=lxfouOv5x9jhsKP1Bd%2Ba7g%3D%3D&amp;trackingId=Zo2%2FBiAXOv16vduCVOPXGA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3346466114/?eBP=JOB_SEARCH_ORGANIC&amp;refId=4ywEScPnNyXxo4R8XDDyug%3D%3D&amp;trackingId=8KDp8adAxJbWIDLVKnGWFw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/778511/</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Aiwa - Chief Of Staff/Executive Assistant to MD</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>First Choice Consultant Service</t>
+          <t>H.R. International</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6464,28 +6464,32 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3311947363/?eBP=JOB_SEARCH_ORGANIC&amp;refId=lxfouOv5x9jhsKP1Bd%2Ba7g%3D%3D&amp;trackingId=WNqFYoHGCUXnAGuPIjECzw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3348445621/?eBP=JOB_SEARCH_ORGANIC&amp;refId=4ywEScPnNyXxo4R8XDDyug%3D%3D&amp;trackingId=HxjojXG842nD4vISxyiFYg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/2187945/</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Back Office Employee</t>
+          <t>Executive Assistant To Chief Executive Officer</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Renix</t>
+          <t>Gurusons Communications Pvt Ltd</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Hybrid</t>
         </is>
       </c>
     </row>
@@ -6502,35 +6506,39 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351740227/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=lxfouOv5x9jhsKP1Bd%2Ba7g%3D%3D&amp;trackingId=9ATkLH5fNrLnKei%2BPaDuEw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3310922665/?eBP=JOB_SEARCH_ORGANIC&amp;refId=4ywEScPnNyXxo4R8XDDyug%3D%3D&amp;trackingId=nA2k8bckdNjxjxnFG5S8rQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/7257938/</t>
+        </is>
+      </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>QriteeQ</t>
+          <t>Vrinda Media Lab</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Hybrid</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Ground Operation Staff</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -6540,17 +6548,13 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3319496364/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=IDxjKawj3FG8sdeJPusspQ%3D%3D&amp;trackingId=ctNVFmXkTlSItPJOs6RtUg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/108293/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3341542564/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=4ywEScPnNyXxo4R8XDDyug%3D%3D&amp;trackingId=MCiUvoVGANlIhxbImq5rYw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Front Office Intern</t>
+          <t>Executive Administration</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6560,7 +6564,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Votan Ventures</t>
+          <t>CELLA SOLUTIONS</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6572,7 +6576,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6582,27 +6586,23 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3319496364/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=KBgE2qXp%2F3uucmQ1U3MWTA%3D%3D&amp;trackingId=CJvNoJ4pRoIMzCBFRVf1yQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/108293/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3086241102/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=4ywEScPnNyXxo4R8XDDyug%3D%3D&amp;trackingId=rUMAlkwRpau%2BNChP0vQ%2F9w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Personal Assistant</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Kroll</t>
+          <t>Svrán Group / Apeejay Stya Group</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6614,7 +6614,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -6624,27 +6624,23 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3345872894/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=KBgE2qXp%2F3uucmQ1U3MWTA%3D%3D&amp;trackingId=YdxH9yxKo2zMDnP2QeRuCQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/74197351/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3311947363/?eBP=JOB_SEARCH_ORGANIC&amp;refId=4ywEScPnNyXxo4R8XDDyug%3D%3D&amp;trackingId=2SOJ8jLf52EyVGoFBkbaVA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Air Hostess</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Avanta Business Centre Pvt. Ltd.</t>
+          <t>SpiceJet Limited</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -6656,7 +6652,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -6666,27 +6662,23 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351734898/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=KBgE2qXp%2F3uucmQ1U3MWTA%3D%3D&amp;trackingId=KMoNBOG1CKOfqf0Nm3nesw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/83555359/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3351740227/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=4ywEScPnNyXxo4R8XDDyug%3D%3D&amp;trackingId=ABHSdQZvpug9JVbEK0Btew%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Air Hostess</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>North Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Mehra Khanna &amp; Company</t>
+          <t>SpiceJet Limited</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6698,7 +6690,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Ground Operation Staff</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -6708,27 +6700,27 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3350383866/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=KBgE2qXp%2F3uucmQ1U3MWTA%3D%3D&amp;trackingId=DSGtxEbMEHpMAU3vpcwOgw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3319496364/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=4jVEy1lWkqgCLEPcVUooQQ%3D%3D&amp;trackingId=g3m6%2FHMp4ggNf9Hfi8n7sA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/86420220/</t>
+          <t>https://www.linkedin.com/company/108293/</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ADMIN INTERN</t>
+          <t>Lecturers in Chemistry (Energetic Materials and Energetic Materials Forensics)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Rock &amp; Storm Distilleries Private Limited</t>
+          <t>UNSW</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6750,17 +6742,17 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351733368/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=KBgE2qXp%2F3uucmQ1U3MWTA%3D%3D&amp;trackingId=J5ejBh9ukmX00tPBgbEr3A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3319496364/?refId=pQ4wWUZmK6y0yRGpeoTmgQ%3D%3D&amp;trackingId=BTA%2BSgT%2FBp5HEYG7SN7B4A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/31052571/</t>
+          <t>https://www.linkedin.com/company/108293/</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Back Office Staff</t>
+          <t>Editorial Reviewer - Materials Sciences</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6770,39 +6762,39 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Ahoy Systems Pvt. Ltd.</t>
+          <t>Cactus Communications</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Aerospace Materials Specialist</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3345865696/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=KBgE2qXp%2F3uucmQ1U3MWTA%3D%3D&amp;trackingId=5eyxy6h9GsbSN6%2BOEQBnPQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3340013856/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=Q9qsT7H%2B3GmAxIzjyG1YzA%3D%3D&amp;trackingId=lADgWSynQbg5IQU4a0hQTA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/164639/</t>
+          <t>https://www.linkedin.com/company/6096/</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Front Office Executive</t>
+          <t>Editorial Reviewer - Materials engineering</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6812,87 +6804,91 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Grammy Communications Pvt. Ltd.</t>
+          <t>Cactus Communications</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Aerospace Materials Specialist</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3304404862/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=KBgE2qXp%2F3uucmQ1U3MWTA%3D%3D&amp;trackingId=RwCeQKUmelw0frFWdtf%2FZg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3334194462/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=Q9qsT7H%2B3GmAxIzjyG1YzA%3D%3D&amp;trackingId=yQNEx13tt7n7T8gb6Xh0JQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/58396/</t>
+        </is>
+      </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Paid Assistant</t>
+          <t>Editorial Reviewer, Chemistry and Materials Science (Work-from-home)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>SIPANI &amp; ASSOCIATES</t>
+          <t>Cactus Communications</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Aerospace Materials Specialist</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3339277861/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=XfA6zIQ7KRJ31WtVaSHyXw%3D%3D&amp;trackingId=QV1p7mQR0XzRUms8XscfGQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3334189881/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=Q9qsT7H%2B3GmAxIzjyG1YzA%3D%3D&amp;trackingId=tNMX%2BqA5cKHN%2FEln2ZWLpQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/3707826/</t>
+          <t>https://www.linkedin.com/company/58396/</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Front Office Receptionist</t>
+          <t>Materials Engineer (OOK)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Hauz Khas, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Multimind Creations</t>
+          <t>Bechtel Corporation</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -6904,65 +6900,69 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Aerospace Materials Specialist</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3309287628/?eBP=JOB_SEARCH_ORGANIC&amp;refId=XfA6zIQ7KRJ31WtVaSHyXw%3D%3D&amp;trackingId=44WERUoW%2FDZgtGhd9y5ksg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3233755411/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=Q9qsT7H%2B3GmAxIzjyG1YzA%3D%3D&amp;trackingId=VG%2BQhLXZLwQFtn60Q6M2%2Fw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/72052053/</t>
+          <t>https://www.linkedin.com/company/58396/</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Personal Secretary female fresher</t>
+          <t>Territory Manager</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>ZaranTech</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr"/>
+          <t>Veeam Software</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Aerospace Materials Specialist</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3325170402/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=XfA6zIQ7KRJ31WtVaSHyXw%3D%3D&amp;trackingId=ZtsH3mHRdV6Y87OTkQwftA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3248375918/?eBP=CwEAAAGEZkrBO18IJOe_b4BJZ03jbETBdqvBMml_LepkwSLif-n_kbuHDnBuIOyjTyMCydItljz-uHeRBDrD7dR8UlmRBeb8KNfhSCnY8kyQd_hcpyHxyDuleLWzQWcKk1iUzK8ZzE7zQoS7ZEMLNt3CrPK2s-abCPz8MD5ochbXtrX4X0o1lFB260ZdrLVWuKuR_6LUVnrx7J1Yw4NcLMusfs4Lud5JBYAAUTAPGhYCyOYgyXy-2fr7CLVHfdrWn9c50krXiLPKHLgDj6m6r4m-XnVfEkVfOQ45UW98W6JetJm83EWkRg1jmZ6hVjOGccoEr19WCjb-rClu2NqlQ273pBKhQIVfPHO_wmU-eJTj45fORGNcinHUjDcBOO19T8iLt8A&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=Q9qsT7H%2B3GmAxIzjyG1YzA%3D%3D&amp;trackingId=KqOCKGep3EWxD7xOFcgt7w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/33725738/</t>
+          <t>https://www.linkedin.com/company/3304/</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Data Entry Operator</t>
+          <t>Cleaning staff</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Three Fox</t>
+          <t>Gopi Restaurant</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -6984,79 +6984,75 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Aerospace Materials Specialist</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3334520747/?eBP=JOB_SEARCH_ORGANIC&amp;refId=XfA6zIQ7KRJ31WtVaSHyXw%3D%3D&amp;trackingId=HkI7KwdXjMWVVNxsJHbVBg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3313003458/?eBP=CwEAAAGEZkrBO6x-Rhqa2Zb62V0YG8jszaKHCqOsialXx84cDpcBizn-xOmjWlQS4rkRmWsYZf7kZabYDvms23DN7v9BgRjnHmH8hqxj6OHaWRPAvxbiPPF56NA9WFI-wTkpwc0_DnYA8PMR9jqxA0BIF54SXjCZhHFLy7ht3CaFg50EFKucnELy4rM1OOPxkQSapkWYRLvkaIIKsdrzCWPpc-J-rX-MnK1ovnQBx7_ydvQA5UjEokY03NkPKJDQyyhudMVq5xLEhULu21GRrA1qSjZpfn0tWXhDTDvsHJj5YHEtiYvkm94lWbWqEPVMgU4VaZDMmADd3e3BiwV-k-cCLAup99I8Wv88gtlEiNAR0nIFbrEjuj98wEA4xypMjvXThEJ8Ug&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=Q9qsT7H%2B3GmAxIzjyG1YzA%3D%3D&amp;trackingId=%2FlIUUxNIp07q0%2FV2xMcDCg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/9453979/</t>
+          <t>https://www.linkedin.com/company/236413/</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>CIEL/SEL/25721: Executive Assistant</t>
+          <t>CTS Specialist</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Open Area, Delhi, India</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>CIEL HR</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>On-site</t>
-        </is>
-      </c>
+          <t>Accenture in India</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Aircraft Cleaner</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3329390008/?eBP=JOB_SEARCH_ORGANIC&amp;refId=XfA6zIQ7KRJ31WtVaSHyXw%3D%3D&amp;trackingId=6PQ8nFwhTtmovnST8aRnwg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3314480733/?eBP=JOB_SEARCH_ORGANIC&amp;refId=yZKjbHLlz6y%2FJ7MvvIt3cg%3D%3D&amp;trackingId=a7xkCwsJ10PzkRTAchTTTw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/74740941/</t>
+          <t>https://www.linkedin.com/company/9215331/</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>company secretary Interns</t>
+          <t>Receptionist</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Pecuniã Innovations®</t>
+          <t>Kroll</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -7068,37 +7064,37 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Aircraft Cleaner</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3316076840/?eBP=JOB_SEARCH_ORGANIC&amp;refId=XfA6zIQ7KRJ31WtVaSHyXw%3D%3D&amp;trackingId=cAouk%2FUTvpqcQvKdQNMj2g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3304905509/?eBP=CwEAAAGEZkrcRNuTFP5ITCVieAVX1Muz8Ub5USJp1BOL-Klg-1wnOW51QYToZG_s9sW4t6NrLfTPQ1PzywpgXLLFNgrFB_xnrxnuphCF9v6DeRmvzGjZiI_RNCQ9Mu0UJSK23YKN7wbm6G-kAs7wlytwNlO0PVuzH4-7y-k_hdTAWMdYD_fiRrcnfvi8HIuDR2CCNjorL--a5MQfGqPxWt8_TMoK51J_dr-zYDuF7ENbHvoJvHDPsSWbz-vqoyEuBnQavSn9F5jG1tqd9RbmAPQOOATIsevNYaOKMNQ0xZMdRcDIuUxwjdbwu_1NFv3K1J3rfjGkFDDyVXQHLR9J65fnIB6wsQA9GA&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yZKjbHLlz6y%2FJ7MvvIt3cg%3D%3D&amp;trackingId=505ldd%2BeG6wH%2BEOh3sS1RA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/3294645/</t>
+          <t>https://www.linkedin.com/company/164639/</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Administrative Assistant (Contractor)</t>
+          <t>Assistant Manager - Housekeeping</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Lockheed Martin</t>
+          <t>Hyatt Regency</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -7110,23 +7106,27 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Aircraft Cleaner</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3338733252/?eBP=JOB_SEARCH_ORGANIC&amp;refId=XfA6zIQ7KRJ31WtVaSHyXw%3D%3D&amp;trackingId=Ft7MNiGS5%2FYde%2BuU%2BqfpkQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3304404862/?eBP=CwEAAAGEZkrcRC6-e7S8Lq_kNA4dOY_Fmu1kUb9X6skLg7N0sGGVMyrtLs_raFgGQS1SyPGJhWwTgmm0qbOWl7yoKd7d3LPTht8lFtEnFsjQ-He5yO9ZhUGgq9gIRzAXtEZ74NHYA5OmnJa-hk8381zRpYDpHZ42_YHpnETczuRV2hPHN2uEDSZxizMMQIaGEuSXJN33p_dnS46rgtzGvHJEgpLRpXr9oy9FUncOA1URno5COtnVMcMuroAz-7jQgY5cXPwzHoA72toP7VWxtRuH4u-J6ddgdFZWS5a7yZWLnApvJF8127e_1oghfHbQ_qSiIZuME3y2kU6ZvuHm2NgXxksCDCHJwsoU3RdoOKZCwIaTGCg2nmRnqtEwuS_jWCr2dKQ&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yZKjbHLlz6y%2FJ7MvvIt3cg%3D%3D&amp;trackingId=%2BYyBbTL8lm4bxDGRm2o7Mw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/3135/</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>General Virtual Assistant (Part-Time)</t>
+          <t>Subject Matter Expert</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -7136,81 +7136,77 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Wing Assistant</t>
+          <t>Chegg India</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Aircraft Cleaner</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3333385938/?eBP=JOB_SEARCH_ORGANIC&amp;refId=ERfFwQ6dJ01vLjMY%2FCX2lA%3D%3D&amp;trackingId=9copmYV6tn9mqBdUzo47gw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3339295387/?eBP=CwEAAAGEZkrcRIJw7dKIx2wMDvyrUc-cYmG2cjmv4NAN7H1qBimOK4GCnowV1irw_odXLdkJw0nDepFuUBhdVXIrIauFa6au_megWnRf5vuwErd3Hs0z93Pzq_h5FUAjsLhCLdb2THOhSVhyIl03Yx2WTSzl4L_XFaK_8ajelnGnfsAdPwZp1V9YzrP61fLc28B2h2qYPi_egM15tpViW3jcmtNcELWMp24GaECVqD9Oz_Ip-fR4_d76oJT9UJVnwr-MgBhizeD6YdybxhN21tiFsxvSqXi1WEoHrcrA35XB5bUp5NONGY6yFjljERu1JG8Lw0RUvVJ1dpeVouAPsly_7sBeCUxYmChSZ418xs-asFBBJLUDWbTMnBOxRdR0JdALZYbj1Q&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yZKjbHLlz6y%2FJ7MvvIt3cg%3D%3D&amp;trackingId=zbFYKSZOrGMn6ZGPwMoNrQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/1934357/</t>
+          <t>https://www.linkedin.com/company/75141745/</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Dental Receptionist</t>
+          <t>Specialist</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>West Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Dr.Anil Gulatis multi-speciality dental clinic</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>On-site</t>
-        </is>
-      </c>
+          <t>Boston Consulting Group (BCG)</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Aircraft Cleaner</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3348818793/?eBP=JOB_SEARCH_ORGANIC&amp;refId=ERfFwQ6dJ01vLjMY%2FCX2lA%3D%3D&amp;trackingId=j7arz0vXKhEcNXZdzFmGPg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3304276291/?eBP=CwEAAAGEZkrcRKvdpcqydieYnSuZVcBasOJXZbqP2tulJfW4oDWqRxez2v-N_kBU96t2EbCl_mjKgnrrOHF-EnbfcpE4pk9PM0yeXA-JWW6otNGo7Yrnq9Q6z1GXVanxCzo73IyDoYxjuVwz_lH-mV33OYOH0Zf1y6LdWylu0dVBMPcX3k1zr8k8ttMmxXImVSVuMw0PnBZBVHtEDEtKvvw9_IGu8eipSAbYnclll1sEof-tObTIHIJGFuQvFnEdub6-_Q6sigsNkSkdQLWcqLawrKf72Vxue1NTHcTJGpZI14h_G8S9uTag5iPreDXMJqf-E5uXogOZ-tg_EELNxt26nGSDaL6z9OMuF-cMqbxnKq-X1QrU2_LcZrSxoSlC0bbEwpCCicze&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=yZKjbHLlz6y%2FJ7MvvIt3cg%3D%3D&amp;trackingId=W01Dex9SofFMgn4sv6dXEw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/10083363/</t>
+          <t>https://www.linkedin.com/company/1784/</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Back Office Executive</t>
+          <t>Junior Technician - Base Maintenance</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -7220,7 +7216,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Business Employment</t>
+          <t>IndiGo (InterGlobe Aviation Ltd)</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -7232,37 +7228,33 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Aircraft Cleaner</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3339482991/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=ERfFwQ6dJ01vLjMY%2FCX2lA%3D%3D&amp;trackingId=oeIJL6PDz8%2BOkSgPRvwWQw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/77072083/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3324500550/?eBP=CwEAAAGEZkrcRDWSxxsN5zKmumiZUHUpSzD4O4vN0QGzlVJR_YNja-j0E0ye35J2lg2lihT2kMqgS3x0J9_bhGEcTlEd0MDWAA3cX7O0o-Hee2tsqEGUNBv-ZoYiwlXNzGas07q8HS3FSD_ZvqBbX-rtQTHmfjmIQODx9x0GImPgMrNEz11ev5zPe3Bx_Xd6gjAYEAW9B6YnZtXsTsBqXweZSgVNx_K0rdyoWbzcAzHorMr9NJXhaWJrUZjp9xGhaz8Cz6VJwHZQxhA9tjupNFT_ewVLoME8AUXRkK8txsJgHCoEKz8JeoTwlVBXp1m4Ab3wmF1cK4kRcq2_SZzd2liS28dxcZGRAgo5cuTvlsnd8yfmIdeQYjgSkYfaIFx1weohN-8iq_6U&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yZKjbHLlz6y%2FJ7MvvIt3cg%3D%3D&amp;trackingId=Ei%2B%2F3Ld02UK1wiNGCXTd3Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>CIEL/SEL/23471: Fleet Manager</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>DJNK &amp; CO LLP</t>
+          <t>CIEL HR</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -7274,37 +7266,37 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Aircraft Maintenance Technician</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3347996504/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=ERfFwQ6dJ01vLjMY%2FCX2lA%3D%3D&amp;trackingId=JerIeWhzywcuda89PQds9A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3308154243/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=7%2FIfdHbPMdU5Rho2v1z3IA%3D%3D&amp;trackingId=6Vfq%2F6WbydnBchtl2A9z0A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/1319/</t>
+          <t>https://www.linkedin.com/company/91609/</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Personal Assistant to Director</t>
+          <t>CIEL/SEL/24096: Fleet Manager NCR</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Kashmir Loom</t>
+          <t>CIEL HR</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7316,75 +7308,79 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Terminal Operations Manager</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3341211418/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=ERfFwQ6dJ01vLjMY%2FCX2lA%3D%3D&amp;trackingId=K%2Bc0VGLNhbnrjzfjiYpWog%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3330590648/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=8jFMDcfmtx9M%2BSnMVGqzMg%3D%3D&amp;trackingId=gfKOFbkExMVP1Q5SEC2rYQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/7322573/</t>
+          <t>https://www.linkedin.com/company/10083363/</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Server hardware Engineer</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi Cantonment, Delhi, India</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>TF 64</t>
+          <t>Orbit Techsol</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Hybrid</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Terminal Operations Manager</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3319226668/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=ERfFwQ6dJ01vLjMY%2FCX2lA%3D%3D&amp;trackingId=4L0GSHcKa0xb6iiqvtXvOw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3330593609/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=8jFMDcfmtx9M%2BSnMVGqzMg%3D%3D&amp;trackingId=b8BC%2BgBBX6RmbgsozwUYWQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/10083363/</t>
+        </is>
+      </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Back Office Employee</t>
+          <t>Reservations Ticketing Agent</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>EGLH Facilities</t>
+          <t>TRAVEL OYTSER INDIA PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -7396,183 +7392,195 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Terminal Operations Manager</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3336170122/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=ERfFwQ6dJ01vLjMY%2FCX2lA%3D%3D&amp;trackingId=TGXeKPIjvIMAuw0EQNO2wg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3333390812/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=8jFMDcfmtx9M%2BSnMVGqzMg%3D%3D&amp;trackingId=u5rOloCEoK4aSweFiOPXCg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/864840/</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Back Office Assistant</t>
+          <t>Reservations Ticketing Agent</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr"/>
+          <t>Prime Air Global Ltd (trading as Prime Travels)</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3342289281/?eBP=JOB_SEARCH_ORGANIC&amp;refId=BOkiA0UILpgzfriOA55QTA%3D%3D&amp;trackingId=GWUw0XF3m9vv%2BJgKMQGdpw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3350345997/?eBP=JOB_SEARCH_ORGANIC&amp;refId=HQ%2BYg1zH9Jjigt3YbHa4og%3D%3D&amp;trackingId=YW%2Fwcr68Z6xa4ssrF3Q20g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/86947942/</t>
+          <t>https://www.linkedin.com/company/27753505/</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Office Administrator</t>
+          <t>Assistant Supervisor</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Unnati</t>
+          <t>Gc23</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3349834110/?eBP=JOB_SEARCH_ORGANIC&amp;refId=BOkiA0UILpgzfriOA55QTA%3D%3D&amp;trackingId=kCuNja3GJBq%2FHEJhipLCnA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3310903920/?eBP=JOB_SEARCH_ORGANIC&amp;refId=HQ%2BYg1zH9Jjigt3YbHa4og%3D%3D&amp;trackingId=8j4oC8SIBBamBEIScQpAFQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/30938121/</t>
+          <t>https://www.linkedin.com/company/74197351/</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>Receptionist</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>rePurpose Global</t>
+          <t>First Choice Consultant Service</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3318697663/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=BOkiA0UILpgzfriOA55QTA%3D%3D&amp;trackingId=qKVqHm8e6pVtT0w7sXhmJw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3345872894/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=HQ%2BYg1zH9Jjigt3YbHa4og%3D%3D&amp;trackingId=ikx3vWLkDwY%2BDRlBEwp3Tw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/2317092/</t>
+          <t>https://www.linkedin.com/company/86420220/</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Veneklasen Associates, Inc.</t>
+          <t>QriteeQ</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3309581305/?eBP=JOB_SEARCH_ORGANIC&amp;refId=BOkiA0UILpgzfriOA55QTA%3D%3D&amp;trackingId=ONGxM%2FQ%2F8Qo2pRr%2FjfMqLA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3351734898/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=HQ%2BYg1zH9Jjigt3YbHa4og%3D%3D&amp;trackingId=ARDBWZnZoeWypCgPxXeo%2BA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/74740941/</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Front Desk Reception Internship in Delhi at Multimind Creations</t>
+          <t>Front Office Executive</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -7582,45 +7590,49 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Multimind Creations</t>
+          <t>Grammy Communications Pvt. Ltd.</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3334589294/?eBP=JOB_SEARCH_ORGANIC&amp;refId=BOkiA0UILpgzfriOA55QTA%3D%3D&amp;trackingId=zZi5ae%2BU%2BD5TIK8LxF2isg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3351733368/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=HQ%2BYg1zH9Jjigt3YbHa4og%3D%3D&amp;trackingId=rAHikULb0KfJzSbrq5qQ1Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/83555359/</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Back Office Employee</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Nitika Gujral</t>
+          <t>Renix</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7632,67 +7644,71 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3291323393/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=BOkiA0UILpgzfriOA55QTA%3D%3D&amp;trackingId=j9NZ934LrFaOcF%2B7%2B0EpLw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3329390008/?eBP=JOB_SEARCH_ORGANIC&amp;refId=HQ%2BYg1zH9Jjigt3YbHa4og%3D%3D&amp;trackingId=4iCXNtmmMJ%2FL4kCj7V3Fow%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Executive Assistant to Executive</t>
+          <t>Front Office Specialist</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>South Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr"/>
+          <t>Dent Ally</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3315806756/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=BOkiA0UILpgzfriOA55QTA%3D%3D&amp;trackingId=982M8CTqrVy%2FjSjtBBKu1w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3350383866/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=HQ%2BYg1zH9Jjigt3YbHa4og%3D%3D&amp;trackingId=zIQUpUlBvM5wvWJGNNIZ%2FQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Executive Assitant</t>
+          <t>Receptionist</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Dhanadeepa Consultant Private limited</t>
+          <t>Avanta Business Centre Pvt. Ltd.</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -7704,37 +7720,37 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351724228/?eBP=JOB_SEARCH_ORGANIC&amp;refId=C9OKVMsS0KN3FebXPD5SeQ%3D%3D&amp;trackingId=8EGi19Hwvjp4H4PH%2FgaIlA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3311402758/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=G%2FW2X4As6vrnh%2FJNiW0s1g%3D%3D&amp;trackingId=p0zLy%2Bnn5qJ0bdZceCOjQg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/9358328/</t>
+          <t>https://www.linkedin.com/company/14541793/</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Executive Administration</t>
+          <t>Back Office Staff</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>CELLA SOLUTIONS</t>
+          <t>Ahoy Systems Pvt. Ltd.</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -7746,37 +7762,37 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3307935045/?eBP=JOB_SEARCH_ORGANIC&amp;refId=C9OKVMsS0KN3FebXPD5SeQ%3D%3D&amp;trackingId=e%2FN5RVsCyw4cAEkmiFlcXA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3339277861/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=G%2FW2X4As6vrnh%2FJNiW0s1g%3D%3D&amp;trackingId=yHFkjPg%2FtWujyHuMoKXrFg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/9395799/</t>
+          <t>https://www.linkedin.com/company/3707826/</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Lecturers in Chemistry (Energetic Materials and Energetic Materials Forensics)</t>
+          <t>Paid Assistant</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>UNSW</t>
+          <t>SIPANI &amp; ASSOCIATES</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -7788,69 +7804,69 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3341574812/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=C9OKVMsS0KN3FebXPD5SeQ%3D%3D&amp;trackingId=jnqW1gUPTUHC3v7rMB1%2Bjw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3334520747/?eBP=JOB_SEARCH_ORGANIC&amp;refId=G%2FW2X4As6vrnh%2FJNiW0s1g%3D%3D&amp;trackingId=DXy%2FO9AJSV6i3OKXlcHVHQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/3064551/</t>
+          <t>https://www.linkedin.com/company/9453979/</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Editorial Reviewer - Materials Sciences</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>North Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Cactus Communications</t>
+          <t>Mehra Khanna &amp; Company</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3318823998/?eBP=JOB_SEARCH_ORGANIC&amp;refId=C9OKVMsS0KN3FebXPD5SeQ%3D%3D&amp;trackingId=yZN55pV6xbfasu3TOnfv0w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3316076840/?eBP=JOB_SEARCH_ORGANIC&amp;refId=G%2FW2X4As6vrnh%2FJNiW0s1g%3D%3D&amp;trackingId=h%2B0PrXHvHhUU9DSSO5j12Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/1522824/</t>
+          <t>https://www.linkedin.com/company/72052053/</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Editorial Reviewer - Materials engineering</t>
+          <t>Apply Now - Computer Operator /MIS and Back Office Executive</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7860,39 +7876,39 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Cactus Communications</t>
+          <t>SP Solution</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3355797416/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=C9OKVMsS0KN3FebXPD5SeQ%3D%3D&amp;trackingId=qcPvbmWNoCUKcdS7NB9mtQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3309287628/?eBP=JOB_SEARCH_ORGANIC&amp;refId=G%2FW2X4As6vrnh%2FJNiW0s1g%3D%3D&amp;trackingId=AElPBMnkdJ8JarVgPo5CjA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/27901162/</t>
+          <t>https://www.linkedin.com/company/13215288/</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Editorial Reviewer, Chemistry and Materials Science (Work-from-home)</t>
+          <t>Office 365</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7902,45 +7918,49 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Cactus Communications</t>
+          <t>Tata Consultancy Services</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Hybrid</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3333386979/?eBP=JOB_SEARCH_ORGANIC&amp;refId=C9OKVMsS0KN3FebXPD5SeQ%3D%3D&amp;trackingId=TowvQoA7apWRDQpf1eq4%2Fg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3346499365/?eBP=JOB_SEARCH_ORGANIC&amp;refId=G%2FW2X4As6vrnh%2FJNiW0s1g%3D%3D&amp;trackingId=QXzaDiPEKXgq0wl3vo0xYg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/1353/</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Materials Engineer (OOK)</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Bechtel Corporation</t>
+          <t>Esri</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -7952,23 +7972,23 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3332118484/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=C9OKVMsS0KN3FebXPD5SeQ%3D%3D&amp;trackingId=J08X7gFmKAXf8rfKcQjx%2Bw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3326557896/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=G%2FW2X4As6vrnh%2FJNiW0s1g%3D%3D&amp;trackingId=Nqenql0ue0EtxzaMMkcAJQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Territory Manager</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7978,49 +7998,45 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Veeam Software</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>On-site</t>
-        </is>
-      </c>
+          <t>Boston Consulting Group (BCG)</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3336109812/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=RT%2F03%2BIMwRiZZVawLaw4lQ%3D%3D&amp;trackingId=KakDZTZueZt2Ju8CxXzXmg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3113897292/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=7JbFass3%2BmkPcC%2FJSAdGvw%3D%3D&amp;trackingId=lkTLnlYGiLt%2FAYx9Bi1oQw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/11297193/</t>
+          <t>https://www.linkedin.com/company/5311/</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Cleaning staff</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Hauz Khas, Delhi, India</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Gopi Restaurant</t>
+          <t>Sealaska Constructors</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -8032,65 +8048,69 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3347955017/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=RT%2F03%2BIMwRiZZVawLaw4lQ%3D%3D&amp;trackingId=dftI88SKyNz%2FWnruvY4pHQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3324505250/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=7JbFass3%2BmkPcC%2FJSAdGvw%3D%3D&amp;trackingId=5w6oXjuKP5VsUo25Jxbdog%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/660041/</t>
+          <t>https://www.linkedin.com/company/1784/</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>CTS Specialist</t>
+          <t>Back Office Executive</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Open Area, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Accenture in India</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr"/>
+          <t>Being Employment</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3347973258/?eBP=JOB_SEARCH_ORGANIC&amp;refId=RT%2F03%2BIMwRiZZVawLaw4lQ%3D%3D&amp;trackingId=GasE7qb1CZfyIlsItZVjRQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3348699905/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=7JbFass3%2BmkPcC%2FJSAdGvw%3D%3D&amp;trackingId=AtciaR7xcXTM8g%2Fmvhd07A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/3294645/</t>
+          <t>https://www.linkedin.com/company/1726890/</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Front Desk Executive</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -8100,7 +8120,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Kroll</t>
+          <t>Mvs Recruitments</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -8112,61 +8132,65 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3346448034/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=RT%2F03%2BIMwRiZZVawLaw4lQ%3D%3D&amp;trackingId=0DbMxCfH2BzIPsik0qZaFQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3326253717/?eBP=JOB_SEARCH_ORGANIC&amp;refId=7JbFass3%2BmkPcC%2FJSAdGvw%3D%3D&amp;trackingId=WYatUTs%2BwS6oQN2bX2GBug%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/86958034/</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Assistant Manager - Housekeeping</t>
+          <t>General Virtual Assistant</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Delhi Cantonment, Delhi, India</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Hyatt Regency</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>On-site</t>
-        </is>
-      </c>
+          <t>Wing Assistant</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3321241451/?eBP=JOB_SEARCH_ORGANIC&amp;refId=RT%2F03%2BIMwRiZZVawLaw4lQ%3D%3D&amp;trackingId=1e%2Fe3u2JkdoSAR5PA6TbzQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3330728994/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=7JbFass3%2BmkPcC%2FJSAdGvw%3D%3D&amp;trackingId=XkHcytoChZ4G6VQv%2FEaddQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/82163656/</t>
+        </is>
+      </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Subject Matter Expert</t>
+          <t>Front Office Executive</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -8176,7 +8200,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Chegg India</t>
+          <t>Vimuktaye Solutions</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -8188,23 +8212,27 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3348445621/?eBP=JOB_SEARCH_ORGANIC&amp;refId=RT%2F03%2BIMwRiZZVawLaw4lQ%3D%3D&amp;trackingId=B7vJHVfxG0Un%2BYHUHBZErg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3341971047/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=7JbFass3%2BmkPcC%2FJSAdGvw%3D%3D&amp;trackingId=2zhdkDsD9bMRTk2CD6vZjA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/7322573/</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Specialist</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -8214,31 +8242,35 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Boston Consulting Group (BCG)</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr"/>
+          <t>Paisalo Digital Limited</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3311947363/?eBP=JOB_SEARCH_ORGANIC&amp;refId=RT%2F03%2BIMwRiZZVawLaw4lQ%3D%3D&amp;trackingId=%2FAnU0Y9jI9b1u5m2gXW%2Bjw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3349851913/?eBP=JOB_SEARCH_ORGANIC&amp;refId=7JbFass3%2BmkPcC%2FJSAdGvw%3D%3D&amp;trackingId=ZTaHJXDiVUeuq4kx%2FvrP%2BQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Junior Technician - Base Maintenance</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -8248,7 +8280,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>IndiGo (InterGlobe Aviation Ltd)</t>
+          <t>Litigation work</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -8260,7 +8292,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Aerospace Materials Specialist</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -8270,39 +8302,35 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3340013856/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=3ESHxTVQY%2B1QWt9DhgST9Q%3D%3D&amp;trackingId=jy5%2Fc81aHUkSKlTAa0BWzA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3355797416/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=JCCh%2BwitzcuYaA%2F%2FIyKnCg%3D%3D&amp;trackingId=80IGm04prCsvnZYegAFQJg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/6096/</t>
+          <t>https://www.linkedin.com/company/1522824/</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>CIEL/SEL/23471: Fleet Manager</t>
+          <t>Back Office Assistant</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>On-site</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>CIEL HR</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>On-site</t>
-        </is>
-      </c>
+          <t>Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Aerospace Materials Specialist</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -8312,17 +8340,17 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3334194462/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=3ESHxTVQY%2B1QWt9DhgST9Q%3D%3D&amp;trackingId=1KRR0AgHP7jsDOSwRzVGiA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3329900995/?eBP=JOB_SEARCH_ORGANIC&amp;refId=JCCh%2BwitzcuYaA%2F%2FIyKnCg%3D%3D&amp;trackingId=aMUchq1rsOXHYdYciOBN6g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/58396/</t>
+          <t>https://www.linkedin.com/company/6575664/</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>CIEL/SEL/24096: Fleet Manager NCR</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -8332,7 +8360,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>CIEL HR</t>
+          <t>Career Junction</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -8344,7 +8372,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Aerospace Materials Specialist</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -8354,39 +8382,35 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3334189881/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=3ESHxTVQY%2B1QWt9DhgST9Q%3D%3D&amp;trackingId=bpaddWi8kZBh4kOYOpOKBg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/58396/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3291323393/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=JCCh%2BwitzcuYaA%2F%2FIyKnCg%3D%3D&amp;trackingId=XJR4Ju6salqVTRx9Y2rOIQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Server hardware Engineer</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Delhi Cantonment, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Orbit Techsol</t>
+          <t>TF 64</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Aerospace Materials Specialist</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -8396,27 +8420,23 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3233755411/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=3ESHxTVQY%2B1QWt9DhgST9Q%3D%3D&amp;trackingId=zn3ZWIhouehJ2uhkmJTdEg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/58396/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3307386249/?eBP=JOB_SEARCH_ORGANIC&amp;refId=JCCh%2BwitzcuYaA%2F%2FIyKnCg%3D%3D&amp;trackingId=ezdkqu7oKKhrNi4POLLpXA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Reservations Ticketing Agent</t>
+          <t>Article Assistant</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>TRAVEL OYTSER INDIA PRIVATE LIMITED</t>
+          <t>RSAG and Co LLP</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -8428,7 +8448,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Aerospace Materials Specialist</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -8438,27 +8458,23 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3248375918/?eBP=CwEAAAGEZjZyKS2cJfZ_i9-2_jKJcUtxHDykH9Sn5i8PNziiKuUdcnD47qvaqjpbJzDpY1qSJZ0C1s7cK6jNq1WWS32jub7Z-zsNdBBTzIAKcn3yABHs3Z8Tt09gYiUD7JEYyze8KLq76aJyNgBDaUGq5vH63_LAG9XIek9L1Zv9Ynwtvr5YGyC7n1BBcCkHmCkPeztRB9O_YA1okW-2ntrfVkNSfWCdFueQvt8DrHA_uglE-gL5RnCCDWiSK60VCLn3bBuqhDepe4w852n_9IcWdU5HyLpI8I9J2cBPLlizhtjGMscWjMTpGnytvy2SkPAHGsUGsawbf_E8ye7BTXYTUtmZd_Fi7TqvekYoLR678EMIMSkd6i2y9DKw_9IG_Yi4MKc&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=3ESHxTVQY%2B1QWt9DhgST9Q%3D%3D&amp;trackingId=VTmJQIIOoOi6VsLtrsMuBg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/3304/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3309581305/?eBP=JOB_SEARCH_ORGANIC&amp;refId=JCCh%2BwitzcuYaA%2F%2FIyKnCg%3D%3D&amp;trackingId=UpWngacv8eZuv%2Bbx1yaIYw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Reservations Ticketing Agent</t>
+          <t>Front Office/ Admin</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Prime Air Global Ltd (trading as Prime Travels)</t>
+          <t>Skystone Ventures LLP</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -8470,7 +8486,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Aerospace Materials Specialist</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -8480,27 +8496,23 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3313003458/?eBP=CwEAAAGEZjZyKex0jX1b1V-_GWq6ZnDTMoOQGhd33NYZCVmLH5aT2Lrzv-Irilypw7RnLWPEiuJ518YggXPMpzjNLnBh46T06kZdgxKz8CC7s8a84nNmC2-_NwHl8QQsc0rDY4y_kPLFX27uw5PT4wYWoaqvxP1FSreBYuZiUXo1Ke95GYXUyP_Zl_fFsIGpJ26sISuCF8q5ErpdEz5ggTCMXbDNmXC7WScBKw08U1powyUOKG09JxE_OgxAryjHoJf0NBHn-_24I1eyz0ygK0OpY6oCCoCy4kUWZLpIx8vEOmgevOxwSaZjdS7ZQg4SepI-rPWVXJimehJSdhPBu0WlOv4poudO-D9EVGm9QtfbCTseAoMmmMNj7eihDE1QMYviZPyK9Q&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=3ESHxTVQY%2B1QWt9DhgST9Q%3D%3D&amp;trackingId=O9ebyvRfNm9ZQKBibdd92Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/236413/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3342566543/?eBP=JOB_SEARCH_ORGANIC&amp;refId=JCCh%2BwitzcuYaA%2F%2FIyKnCg%3D%3D&amp;trackingId=9oyq2UZqgG0MRObZYn0TLg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Air Hostess</t>
+          <t>Office Executive</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>SpiceJet Limited</t>
+          <t>Complete The Square</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8512,7 +8524,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Aircraft Cleaner</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -8522,39 +8534,31 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3314480733/?eBP=JOB_SEARCH_ORGANIC&amp;refId=pg07pnglPcDbiN%2BgiTwFqg%3D%3D&amp;trackingId=qWUN13LKZDJgpdlUKn7DeA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/9215331/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3351741338/?eBP=JOB_SEARCH_ORGANIC&amp;refId=JCCh%2BwitzcuYaA%2F%2FIyKnCg%3D%3D&amp;trackingId=2%2B1M1yIsz4IK17%2BbH8UwbQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Air Hostess</t>
+          <t>apply now Executive Assistant and Operations Coordinator</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>SpiceJet Limited</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>On-site</t>
-        </is>
-      </c>
+          <t>ConvertKit</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Aircraft Cleaner</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -8564,39 +8568,39 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3304905509/?eBP=CwEAAAGEZjaNieIWURpBuCBn4hJEd6E5lZ-2qFjGFRZstw-bN7UZ9m8go7WYwFSmj1nrQjTgnuBVANjjgorIff70I2M3sFfitdYXWeX22N2oLAgAEV0Y-FF9Fac-8l5M6frU6nwRGF9H5iUNChSaB0P3yzrYQFOAKxfbbN3vXfTeDW8N1j_lmP2VWGtfy1Zd8IbsNJJR348XNF0a0eYVWqBM7Te9c42Oppzg-vMxHcR3VvrkGSmmkbwvLsEs5W7RwCmeO-xrZJUmy2tmkvZkCfb2aNH_bgIQhee0rQakyZ2UtNEpLnkfWcFUQ37KSBSF0NDRxqYSBB-jJBzApAllPF1iPItR0dIxyw&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=pg07pnglPcDbiN%2BgiTwFqg%3D%3D&amp;trackingId=cnRum9VzgYXAc1g3KHQtRg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3320710553/?eBP=JOB_SEARCH_ORGANIC&amp;refId=vWhHS6mrbDq21esBblc35A%3D%3D&amp;trackingId=4xkUAleStgqsKnKN0IMCQQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/164639/</t>
+          <t>https://www.linkedin.com/company/7641049/</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Assistant Supervisor</t>
+          <t>Job openings for executive assistant in delhi bangalore pune</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Gc23</t>
+          <t>Talent Zone Consultants</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Aircraft Cleaner</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -8606,27 +8610,27 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3304404862/?eBP=CwEAAAGEZjaNiWxhUv_OrvwlDjrowrtU26sNDxdUF6Y_noK6uVgAOvmrj7aeeeOVoswATgPntnYBFNwnsZl88WgZ2vBrdWcYSC7auGUaJ958FKPO7Uhtp4ltFnSLOivEX7HCBLK6Yn83XA2UWSR40rU7_AxThJnotFTdMOnkoxDBBfK2Z5dBzLliTbFxuNfOsHqXqLmkMzIlQoGOhyeIrZFz0mOR9go_2AWN6ZYOEkPrVv0UU4k0pY9a-qV8jhPaiM0cixb9cqufuVb893q0QqrwrANSHbGBGOvUIrMyXBJIO-K5N3E-hb5eH9BkLGPp9NYIs421oUnt8ywq_pieSHdIq6hlQS6GmhkDAMC-bzQ_PfzY-9bqtYfcOf0BHJR574rIE7M&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=pg07pnglPcDbiN%2BgiTwFqg%3D%3D&amp;trackingId=OLGarspU%2FVFVB72VVQ6vGw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3320715031/?eBP=JOB_SEARCH_ORGANIC&amp;refId=vWhHS6mrbDq21esBblc35A%3D%3D&amp;trackingId=6W7DjZaSFqK8RyufhEvoDg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/3135/</t>
+          <t>https://www.linkedin.com/company/10816227/</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>First Choice Consultant Service</t>
+          <t>Unnati</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -8638,7 +8642,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Aircraft Cleaner</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -8648,39 +8652,35 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3339295387/?eBP=CwEAAAGEZjaNiVW9VAnVHljD35OcywvvFPXtwc1zw4CFTh4VM3hpVGtw2tBsoqytpzdUqwXkJ7iXqHRCczVEkKXWE9M_JlZAqk0EktRqeU8Yn_AWC5ciBZc_tve1D7y0I95G5OZMRcmt4qZ1CK4-oobHF93D0he20naShA1ZuWAVVdE8CMjotuMcW_E5IpnwaeB4kKMRGidkeXK3VVFN9RY1xQBH5p-o9ziyJCNhTi3fA9xwe8Vz5rJKG7fUw4pKT_UCOEWkPjjymQ8MhHi9Rq2vEzRukVzCMx-C0KhVnOofL8Djjl3niV7MzDbH0pyUH7buZV8nrYwzWS1m1YhpWVjMOfhuYBukZ3bD52AyQa2rJBB7f2L1cv1puHDM3CIr2rv_3bzupA&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=pg07pnglPcDbiN%2BgiTwFqg%3D%3D&amp;trackingId=cwxqK9%2Bixml9fWCoWPnTNg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3309011761/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=vWhHS6mrbDq21esBblc35A%3D%3D&amp;trackingId=1xF3nqPBy7F7CNy66LuUEQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/75141745/</t>
+          <t>https://www.linkedin.com/company/7967889/</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Back Office Employee</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>On-site</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Renix</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>On-site</t>
-        </is>
-      </c>
+          <t>Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Aircraft Cleaner</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -8690,39 +8690,39 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3304276291/?eBP=CwEAAAGEZjaNiS5gXvJnnz1FTEj_dv_b5DlITiC0QSYKcS1-eZsOBtQaMTj8VnU-oXi3MmLIH5orv7VJ2G4clqbjEQ1ueag14hH9GggTCmOWmZbq5WcjIjbvRigZ5rXmqk2ZVfFOI66iQyHtKPMNyXIRqmY9KUWYh5H6TuExBonEqWHcddmCpZvoTT3Ez3NxZIHZfL9dyXlZQd0ipJt34x5BU-qYRdZ5weM-5FGqjuUeSDJ4TUExcy37-RKLyqeXXCR1fk1zQVs_No_zQUwU_eZlLbf3uELteqQaPNnmbJo5M8MuvWSDGIa0LTWIZfEZwx8RVjRiNFL6zmojsQLzlNewgXPsri_zS7f01IfS83dQisOZipWlFELLF9I9ggnX59zRczsAcvy9&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=pg07pnglPcDbiN%2BgiTwFqg%3D%3D&amp;trackingId=%2F2B0h00%2BjQIDrBjNiNmVQg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3315812830/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=vWhHS6mrbDq21esBblc35A%3D%3D&amp;trackingId=k%2F41PpSQFgs92Ot5PWRRHg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/1784/</t>
+          <t>https://www.linkedin.com/company/2317092/</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Immediate joiners Executive Assistant to MD</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>QriteeQ</t>
+          <t>MNR Solutions Pvt. Ltd.</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Aircraft Cleaner</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -8732,13 +8732,17 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3324500550/?eBP=CwEAAAGEZjaNicZQQeFwyKu0NVICPhXFG8m2zBFzclzY_BtCHrNNTmO2zlkUA5ge-aMQODU0FPJ9H51GR2c_av-wuoJd6OcWpmkMcRvj9Zq8W-s7swTMUp3cvl-meo-1TI6Ediz5nFvCpAEDSaEr_zzzLrRGZPtmG_QVblC1dDKdUKzNID74vV67bARxFiZTuaFgHhJpYqCt7KBho0eGMeC_lsMKCDQgnRrPQeQL5nzaCHt3claCrbl9bOqExi7ShGxiGurgXIUXlQ4gnJ2mYoZ8Feb4tGQ9cJLSB1wezDe_P5QQ9lsIoUHdIsR4B1YiNSXn4ZCmG4zoY4IZcWBR0d62ZVsuBb9e8XVBkcSLVW89zLp2O6Ak0q_KhhcJI3FOqY9E43M7nYL-&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=pg07pnglPcDbiN%2BgiTwFqg%3D%3D&amp;trackingId=jzGV5qsfHOAZ3f%2FKSEE8JA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3321238755/?eBP=JOB_SEARCH_ORGANIC&amp;refId=vWhHS6mrbDq21esBblc35A%3D%3D&amp;trackingId=eNpiSHzMPVrNOnf3X0byTQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/483229/</t>
+        </is>
+      </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Front Office Intern</t>
+          <t>personal Secretary</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -8748,7 +8752,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Votan Ventures</t>
+          <t>FRADE шоколад ручной работы</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -8760,7 +8764,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Aircraft Maintenance Technician</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -8770,27 +8774,27 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3308154243/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=7lzTM6Bd6z%2BQDkAADFq3YA%3D%3D&amp;trackingId=Yp%2BoiL8vSiphaRCqnvmd8g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3307392536/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=vWhHS6mrbDq21esBblc35A%3D%3D&amp;trackingId=Qr%2BFohw%2BYAQyRyz1OBbj7Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/91609/</t>
+          <t>https://www.linkedin.com/company/7228226/</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>West Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Kroll</t>
+          <t>Mahesh K Agarwal Co</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -8802,7 +8806,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Terminal Operations Manager</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -8812,27 +8816,23 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3330590648/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=juaHqevjWcY4uis5uUF93Q%3D%3D&amp;trackingId=lCmQccrXCzQsrKr7doWLvA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/10083363/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3336576094/?eBP=JOB_SEARCH_ORGANIC&amp;refId=vWhHS6mrbDq21esBblc35A%3D%3D&amp;trackingId=xN6A3VbY32dAduwPgRveoA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Executive Assitant</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Avanta Business Centre Pvt. Ltd.</t>
+          <t>Dhanadeepa Consultant Private limited</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -8844,7 +8844,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Terminal Operations Manager</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -8854,27 +8854,27 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3330593609/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=juaHqevjWcY4uis5uUF93Q%3D%3D&amp;trackingId=xyOeg3hIfESjcFZhdGquww%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3346466114/?eBP=JOB_SEARCH_ORGANIC&amp;refId=aTSwI%2FqxKFLWMH4re3qvCA%3D%3D&amp;trackingId=i7hQC7MziJ5xFoimASdTYQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/10083363/</t>
+          <t>https://www.linkedin.com/company/778511/</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Aiwa - Chief Of Staff/Executive Assistant to MD</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>North Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Mehra Khanna &amp; Company</t>
+          <t>H.R. International</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -8886,7 +8886,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Terminal Operations Manager</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -8896,32 +8896,32 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3333390812/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=juaHqevjWcY4uis5uUF93Q%3D%3D&amp;trackingId=vM%2B5G3BDXhEh7xQCQp%2F0hw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3348445621/?eBP=JOB_SEARCH_ORGANIC&amp;refId=aTSwI%2FqxKFLWMH4re3qvCA%3D%3D&amp;trackingId=NiaJ6sslZpEUo0n1%2FDISgQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/864840/</t>
+          <t>https://www.linkedin.com/company/2187945/</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ADMIN INTERN</t>
+          <t>Executive Assistant To Chief Executive Officer</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Rock &amp; Storm Distilleries Private Limited</t>
+          <t>Gurusons Communications Pvt Ltd</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Hybrid</t>
         </is>
       </c>
     </row>
@@ -8938,32 +8938,32 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3350345997/?refId=lEQ1Uqf%2Fbg8sZ3Nty%2Fdiwg%3D%3D&amp;trackingId=vyhuaTMF%2B5SB50KjWuEN0w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3310922665/?eBP=JOB_SEARCH_ORGANIC&amp;refId=aTSwI%2FqxKFLWMH4re3qvCA%3D%3D&amp;trackingId=WBha7gRDrDrpmtwK%2Fy7%2Bag%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/27753505/</t>
+          <t>https://www.linkedin.com/company/7257938/</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Back Office Staff</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Ahoy Systems Pvt. Ltd.</t>
+          <t>Vrinda Media Lab</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Hybrid</t>
         </is>
       </c>
     </row>
@@ -8980,23 +8980,23 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3310903920/?refId=lEQ1Uqf%2Fbg8sZ3Nty%2Fdiwg%3D%3D&amp;trackingId=y6khSS8tHim0uPsdf57KVQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3341542564/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=aTSwI%2FqxKFLWMH4re3qvCA%3D%3D&amp;trackingId=SgBxMM0nJToTyPk5%2Bbidig%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Front Office Executive</t>
+          <t>Executive Administration</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Grammy Communications Pvt. Ltd.</t>
+          <t>CELLA SOLUTIONS</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -9008,7 +9008,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Ground Operation Staff</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -9018,17 +9018,13 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3319496364/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=p4%2FVjqbKTvWBbqlX%2Bydh9Q%3D%3D&amp;trackingId=4rBIg3aOYRJx8OPC22zbtw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/108293/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3086241102/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=aTSwI%2FqxKFLWMH4re3qvCA%3D%3D&amp;trackingId=4LP4B5ZX6VmPXIfuizg%2Fag%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Paid Assistant</t>
+          <t>Personal Assistant</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -9038,7 +9034,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>SIPANI &amp; ASSOCIATES</t>
+          <t>Svrán Group / Apeejay Stya Group</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -9050,7 +9046,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -9060,27 +9056,23 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3319496364/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=4YF1oIaP%2BZH%2Fa0XbtqKGiA%3D%3D&amp;trackingId=3YkoJ9LeS64nAuP4S41IuQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/108293/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3311947363/?eBP=JOB_SEARCH_ORGANIC&amp;refId=aTSwI%2FqxKFLWMH4re3qvCA%3D%3D&amp;trackingId=DoxPGXqqH9R540AIGNkEfQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Front Office Receptionist</t>
+          <t>Air Hostess</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Hauz Khas, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Multimind Creations</t>
+          <t>SpiceJet Limited</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -9092,7 +9084,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Reservation and Ticketing Agent</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -9102,35 +9094,35 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3345872894/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=4YF1oIaP%2BZH%2Fa0XbtqKGiA%3D%3D&amp;trackingId=XB5kQR4VedlD7CuyFCQZqw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/74197351/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3351740227/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=aTSwI%2FqxKFLWMH4re3qvCA%3D%3D&amp;trackingId=9lrNdOQRga%2F7ckP%2FkheLbg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Personal Secretary female fresher</t>
+          <t>Air Hostess</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>ZaranTech</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr"/>
+          <t>SpiceJet Limited</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Cabin Crew/Flight Attendant</t>
+          <t>Ground Operation Staff</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -9140,32 +9132,32 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351734898/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=4YF1oIaP%2BZH%2Fa0XbtqKGiA%3D%3D&amp;trackingId=nnUPBLQs1Hlpejj%2Fvz5S5w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3319496364/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=jNvHognzc6%2Fxp2K9TTfk2Q%3D%3D&amp;trackingId=lXc1zkzQxoRRHA6Ne%2FD8Aw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/83555359/</t>
+          <t>https://www.linkedin.com/company/108293/</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Data Entry Operator</t>
+          <t>Assistant Supervisor</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Three Fox</t>
+          <t>Gc23</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Remote</t>
         </is>
       </c>
     </row>
@@ -9182,27 +9174,27 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3350383866/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=4YF1oIaP%2BZH%2Fa0XbtqKGiA%3D%3D&amp;trackingId=zQUWQo7LBiQTcO3ovjVuCA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3319496364/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=iOwtfqiMzUgr9Dvhd2dsyg%3D%3D&amp;trackingId=3VS%2FnSvKDXnAgJpcCzwJ3w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/86420220/</t>
+          <t>https://www.linkedin.com/company/108293/</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>CIEL/SEL/25721: Executive Assistant</t>
+          <t>Back Office Employee</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>CIEL HR</t>
+          <t>Renix</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -9224,27 +9216,27 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3351733368/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=4YF1oIaP%2BZH%2Fa0XbtqKGiA%3D%3D&amp;trackingId=pc2mbifxUkWSjKUTiXTKGA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3345872894/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=iOwtfqiMzUgr9Dvhd2dsyg%3D%3D&amp;trackingId=a4w8Gf%2ByBfb30lsAH1fSYg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/31052571/</t>
+          <t>https://www.linkedin.com/company/83555359/</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>company secretary Interns</t>
+          <t>Receptionist</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Pecuniã Innovations®</t>
+          <t>First Choice Consultant Service</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -9266,32 +9258,32 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3345865696/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=4YF1oIaP%2BZH%2Fa0XbtqKGiA%3D%3D&amp;trackingId=Y7uCgT3BSOA1Dfu1RlaUUA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3350383866/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=iOwtfqiMzUgr9Dvhd2dsyg%3D%3D&amp;trackingId=ICK%2BUKKUFoRVGsS8mQtB%2BQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/164639/</t>
+          <t>https://www.linkedin.com/company/74197351/</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Administrative Assistant (Contractor)</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Lockheed Martin</t>
+          <t>QriteeQ</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Remote</t>
         </is>
       </c>
     </row>
@@ -9308,13 +9300,17 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3304404862/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=4YF1oIaP%2BZH%2Fa0XbtqKGiA%3D%3D&amp;trackingId=awHHgGvTbG7s%2BqHNAeVxFg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3351734898/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=iOwtfqiMzUgr9Dvhd2dsyg%3D%3D&amp;trackingId=B1KyeSpp6omcNIMBTjDPTA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/86420220/</t>
+        </is>
+      </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>General Virtual Assistant (Part-Time)</t>
+          <t>Receptionist</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -9324,12 +9320,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Wing Assistant</t>
+          <t>Kroll</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
@@ -9346,27 +9342,27 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3339277861/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=tHEPRzeSZVDGYwKO1XnzVQ%3D%3D&amp;trackingId=Z6itRP95ps6zFIOOvke7KQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3351733368/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=iOwtfqiMzUgr9Dvhd2dsyg%3D%3D&amp;trackingId=aVO%2Bku3UcKkL1x7Fiuf8oA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/3707826/</t>
+          <t>https://www.linkedin.com/company/164639/</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Dental Receptionist</t>
+          <t>Front Office Specialist</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>West Delhi, Delhi, India</t>
+          <t>South Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Dr.Anil Gulatis multi-speciality dental clinic</t>
+          <t>Dent Ally</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -9388,27 +9384,27 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3309287628/?eBP=JOB_SEARCH_ORGANIC&amp;refId=tHEPRzeSZVDGYwKO1XnzVQ%3D%3D&amp;trackingId=PGBK9okuon38qEq%2B69h56w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3304404862/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=iOwtfqiMzUgr9Dvhd2dsyg%3D%3D&amp;trackingId=6dj9OTPPtEyIdta8iyyOPw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/72052053/</t>
+          <t>https://www.linkedin.com/company/14541793/</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Back Office Executive</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>North Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Business Employment</t>
+          <t>Mehra Khanna &amp; Company</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -9430,17 +9426,13 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3325170402/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=tHEPRzeSZVDGYwKO1XnzVQ%3D%3D&amp;trackingId=Zmox1CLQEgAkcmkYgXI3bg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/33725738/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3311402758/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=iOwtfqiMzUgr9Dvhd2dsyg%3D%3D&amp;trackingId=x5yIekGgRpmcseRftE4shA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>ADMIN INTERN</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -9450,7 +9442,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>DJNK &amp; CO LLP</t>
+          <t>Rock &amp; Storm Distilleries Private Limited</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -9472,27 +9464,27 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3334520747/?eBP=JOB_SEARCH_ORGANIC&amp;refId=tHEPRzeSZVDGYwKO1XnzVQ%3D%3D&amp;trackingId=nGimGeJ3gvDvL8vYyEpu%2Fw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3309287628/?eBP=JOB_SEARCH_ORGANIC&amp;refId=ACcSs5WpsR7nWa6O0Hp%2FTA%3D%3D&amp;trackingId=lCYVKOe5NXLh33C1I3IzKQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/9453979/</t>
+          <t>https://www.linkedin.com/company/72052053/</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Personal Assistant to Director</t>
+          <t>Back Office Staff</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Kashmir Loom</t>
+          <t>Ahoy Systems Pvt. Ltd.</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -9514,27 +9506,27 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3329390008/?eBP=JOB_SEARCH_ORGANIC&amp;refId=tHEPRzeSZVDGYwKO1XnzVQ%3D%3D&amp;trackingId=9b5Xku9Z3a3qbZX1yAC7XA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3325170402/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=ACcSs5WpsR7nWa6O0Hp%2FTA%3D%3D&amp;trackingId=HHBHkS3bHMNhKmyv%2BrZx4g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/74740941/</t>
+          <t>https://www.linkedin.com/company/33725738/</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Front Office Executive</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>TF 64</t>
+          <t>Grammy Communications Pvt. Ltd.</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -9556,27 +9548,27 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3316076840/?eBP=JOB_SEARCH_ORGANIC&amp;refId=tHEPRzeSZVDGYwKO1XnzVQ%3D%3D&amp;trackingId=bjJGYhFRKvPSEDHbpBK8Ag%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3334520747/?eBP=JOB_SEARCH_ORGANIC&amp;refId=ACcSs5WpsR7nWa6O0Hp%2FTA%3D%3D&amp;trackingId=Ef9aog56ISV9HWYyqPgSUA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/3294645/</t>
+          <t>https://www.linkedin.com/company/9453979/</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Back Office Employee</t>
+          <t>Paid Assistant</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>EGLH Facilities</t>
+          <t>SIPANI &amp; ASSOCIATES</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -9598,26 +9590,34 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3338733252/?eBP=JOB_SEARCH_ORGANIC&amp;refId=tHEPRzeSZVDGYwKO1XnzVQ%3D%3D&amp;trackingId=NTndNWhOW6B61XgzrsvN%2BA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3329390008/?eBP=JOB_SEARCH_ORGANIC&amp;refId=ACcSs5WpsR7nWa6O0Hp%2FTA%3D%3D&amp;trackingId=Cj2DvB7JA%2FhFwaeBWAMX4A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/74740941/</t>
+        </is>
+      </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Back Office Assistant</t>
+          <t>Front Office Receptionist</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Hauz Khas, Delhi, India</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr"/>
+          <t>Multimind Creations</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -9632,27 +9632,27 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3333385938/?eBP=JOB_SEARCH_ORGANIC&amp;refId=TDjG9khmIkv1XptTlwfAWA%3D%3D&amp;trackingId=TyoWiR3K5NB0lWkOz0UzkA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3316076840/?eBP=JOB_SEARCH_ORGANIC&amp;refId=ACcSs5WpsR7nWa6O0Hp%2FTA%3D%3D&amp;trackingId=OZu8PkgxFlid%2Fnmn%2Byo2Ww%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/1934357/</t>
+          <t>https://www.linkedin.com/company/3294645/</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Office Administrator</t>
+          <t>Front Desk Receptionist</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>Saket, Delhi, India</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Unnati</t>
+          <t>Studio Blue Hill</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -9674,17 +9674,17 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3348818793/?eBP=JOB_SEARCH_ORGANIC&amp;refId=TDjG9khmIkv1XptTlwfAWA%3D%3D&amp;trackingId=I02YWUU5hD9OLT%2B3O54knA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3338733252/?eBP=JOB_SEARCH_ORGANIC&amp;refId=ACcSs5WpsR7nWa6O0Hp%2FTA%3D%3D&amp;trackingId=RzkVXP%2FuX0r01hTyuaY7gQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/10083363/</t>
+          <t>https://www.linkedin.com/company/86824158/</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Female Executive Assistant</t>
+          <t>Data Entry Operator</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Opulence Consulting Group</t>
+          <t>Three Fox</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -9716,27 +9716,23 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3339482991/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=TDjG9khmIkv1XptTlwfAWA%3D%3D&amp;trackingId=6Z%2F86YR4oAEAmavgwp5cDA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/77072083/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3353988478/?eBP=JOB_SEARCH_ORGANIC&amp;refId=ACcSs5WpsR7nWa6O0Hp%2FTA%3D%3D&amp;trackingId=VON%2FL99OeJPy%2BYoq8MJy6w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Front Desk Executive</t>
+          <t>CIEL/SEL/25721: Executive Assistant</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Creative group LLP</t>
+          <t>CIEL HR</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -9758,27 +9754,27 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3347996504/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TDjG9khmIkv1XptTlwfAWA%3D%3D&amp;trackingId=hIa800GsLyg3q7VpB1ihfA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3348818793/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xzZSJm4XekMbFpGU9MdPqQ%3D%3D&amp;trackingId=QN8QFunW4BWYFiQKQQo70g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/1319/</t>
+          <t>https://www.linkedin.com/company/10083363/</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Personal Assistant to Director</t>
+          <t>company secretary Interns</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Foxhog Ventures Corp. USA</t>
+          <t>Pecuniã Innovations®</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -9800,17 +9796,17 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3341211418/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TDjG9khmIkv1XptTlwfAWA%3D%3D&amp;trackingId=Gxb7w7w1%2FSm3JY23DYlefA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3339482991/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=xzZSJm4XekMbFpGU9MdPqQ%3D%3D&amp;trackingId=C9T872UreK8%2FXtyVu2muJw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/7322573/</t>
+          <t>https://www.linkedin.com/company/77072083/</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Executive Secretary</t>
+          <t>Administrative Assistant (Contractor)</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -9820,10 +9816,14 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>ProdyoVidhi LLP</t>
-        </is>
-      </c>
-      <c r="H232" t="inlineStr"/>
+          <t>Lockheed Martin</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -9838,28 +9838,32 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3319226668/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TDjG9khmIkv1XptTlwfAWA%3D%3D&amp;trackingId=FL5VpO%2Fzixee6olKOu0scA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3347996504/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=xzZSJm4XekMbFpGU9MdPqQ%3D%3D&amp;trackingId=LD0UeLW2DmDN82%2B0NvBy4Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/1319/</t>
+        </is>
+      </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>General Virtual Assistant (Part-Time)</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>New Delhi, Delhi, India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Paisalo Digital Limited</t>
+          <t>Wing Assistant</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Remote</t>
         </is>
       </c>
     </row>
@@ -9876,23 +9880,27 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3336170122/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=TDjG9khmIkv1XptTlwfAWA%3D%3D&amp;trackingId=T3sKalea6iXUWyyYMhp6fw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3341211418/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=xzZSJm4XekMbFpGU9MdPqQ%3D%3D&amp;trackingId=hJLd%2Fmew7iA0YXCiDxjQ6A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/7322573/</t>
+        </is>
+      </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Admin Executive</t>
+          <t>Dental Receptionist</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>West Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>ALBINO LIFESCIENCES PRIVATE LIMITED</t>
+          <t>Dr.Anil Gulatis multi-speciality dental clinic</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -9914,17 +9922,13 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3342289281/?eBP=JOB_SEARCH_ORGANIC&amp;refId=LMkduLUoXKbYA%2BpS%2BgORnA%3D%3D&amp;trackingId=TvLp4qeAlQzghGLStyIuUA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/86947942/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3319226668/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=xzZSJm4XekMbFpGU9MdPqQ%3D%3D&amp;trackingId=I8v56sxS8mmpdO1zDFI%2F5w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Personal Secretary</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -9934,7 +9938,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Visaglobal</t>
+          <t>Litigation work</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -9956,32 +9960,28 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3349834110/?eBP=JOB_SEARCH_ORGANIC&amp;refId=LMkduLUoXKbYA%2BpS%2BgORnA%3D%3D&amp;trackingId=JNW3GEZekJSRW8ioqq7JdA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/30938121/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3336170122/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=xzZSJm4XekMbFpGU9MdPqQ%3D%3D&amp;trackingId=%2FWYMrICzhXXDkIgqFtBTnw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>Back Office Executive</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>rePurpose Global</t>
+          <t>Business Employment</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
@@ -9998,32 +9998,28 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3318697663/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=LMkduLUoXKbYA%2BpS%2BgORnA%3D%3D&amp;trackingId=I9K88Zotm6t30GXdII7KdA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/2317092/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/3329900995/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xzZSJm4XekMbFpGU9MdPqQ%3D%3D&amp;trackingId=sN34EpbNwBAGG7qwkUAlWg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Veneklasen Associates, Inc.</t>
+          <t>DJNK &amp; CO LLP</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
@@ -10040,28 +10036,32 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3309581305/?eBP=JOB_SEARCH_ORGANIC&amp;refId=LMkduLUoXKbYA%2BpS%2BgORnA%3D%3D&amp;trackingId=wg7%2Fcb9Aj5XWK16CMyDVwg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3342289281/?eBP=JOB_SEARCH_ORGANIC&amp;refId=IaeZmTHPP5IQx2Z5Yrhu7Q%3D%3D&amp;trackingId=ast49bw7ZVPLG%2BsOSZXt4w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/86947942/</t>
+        </is>
+      </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Front Desk Reception Internship in Delhi at Multimind Creations</t>
+          <t>Personal Assistant to Director</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
+          <t>New Delhi, Delhi, India</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Multimind Creations</t>
+          <t>Kashmir Loom</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>On-site</t>
         </is>
       </c>
     </row>
@@ -10078,13 +10078,17 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3334589294/?eBP=JOB_SEARCH_ORGANIC&amp;refId=LMkduLUoXKbYA%2BpS%2BgORnA%3D%3D&amp;trackingId=u1%2FItVD1AWEUyoFCWehh3A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3349834110/?eBP=JOB_SEARCH_ORGANIC&amp;refId=IaeZmTHPP5IQx2Z5Yrhu7Q%3D%3D&amp;trackingId=6TXd%2Fe3wagkMt8lO1TXIig%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/30938121/</t>
+        </is>
+      </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -10094,7 +10098,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Nitika Gujral</t>
+          <t>TF 64</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -10116,26 +10120,34 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3291323393/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=LMkduLUoXKbYA%2BpS%2BgORnA%3D%3D&amp;trackingId=qCsslvmADUp2FVGzIvM92Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/3318697663/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=IaeZmTHPP5IQx2Z5Yrhu7Q%3D%3D&amp;trackingId=rR914aPCuDUOb0Vjfm4r8A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/2317092/</t>
+        </is>
+      </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Executive Assistant to Executive</t>
+          <t>Back Office Employee</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Delhi, Delhi, India</t>
-        </is>
-      </c>
-      <c r="H240" t="inlineStr"/>
+          <t>EGLH Facilities</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10150,30 +10162,26 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3315806756/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=LMkduLUoXKbYA%2BpS%2BgORnA%3D%3D&amp;trackingId=GIxJbhAIE8SuNEH%2BYmIYjA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3309581305/?eBP=JOB_SEARCH_ORGANIC&amp;refId=IaeZmTHPP5IQx2Z5Yrhu7Q%3D%3D&amp;trackingId=VtvyjjwQHrc4QP3BU91mvQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Executive Assitant</t>
+          <t>Back Office Assistant</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>On-site</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Dhanadeepa Consultant Private limited</t>
-        </is>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>On-site</t>
-        </is>
-      </c>
+          <t>Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10188,30 +10196,586 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3307935045/?eBP=JOB_SEARCH_ORGANIC&amp;refId=36rOUGeUotPeMVzoidfmAA%3D%3D&amp;trackingId=RH%2BrfYpEmmPDj%2F%2BayRCUoA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
+          <t>https://www.linkedin.com/jobs/view/3334589294/?eBP=JOB_SEARCH_ORGANIC&amp;refId=IaeZmTHPP5IQx2Z5Yrhu7Q%3D%3D&amp;trackingId=ts0b%2FXfVw3y6C1u9AuXygg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Office Administrator</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Unnati</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Cabin Crew/Flight Attendant</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3291323393/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=IaeZmTHPP5IQx2Z5Yrhu7Q%3D%3D&amp;trackingId=osGbd1eEr3Ctk9MYXYscmw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Senior Executive Corporate Secretarial Services</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>IMC Group (in collaboration with Andersen Global)</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Cabin Crew/Flight Attendant</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3315806756/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=IaeZmTHPP5IQx2Z5Yrhu7Q%3D%3D&amp;trackingId=DUJDWQvP75eX8Tc0LYpYlg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Female Executive Assistant</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Opulence Consulting Group</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Cabin Crew/Flight Attendant</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3345897845/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=ar0r7UOWRyGp7LBv7kW9lA%3D%3D&amp;trackingId=olVoxEoIM7iS%2BypjMs9zCA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/2206113/</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Executive Assistant</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>New Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Paisalo Digital Limited</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Cabin Crew/Flight Attendant</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3307935045/?eBP=JOB_SEARCH_ORGANIC&amp;refId=ar0r7UOWRyGp7LBv7kW9lA%3D%3D&amp;trackingId=9nKdyD%2FMHGWUl2t1Z%2FEIXA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/9395799/</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Executive Secretary</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>New Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>ProdyoVidhi LLP</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Cabin Crew/Flight Attendant</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3355797416/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=ar0r7UOWRyGp7LBv7kW9lA%3D%3D&amp;trackingId=YtPqYasqIBE7%2BEW%2BevD%2FUQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/1522824/</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Personal Assistant to Director</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Foxhog Ventures Corp. USA</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Cabin Crew/Flight Attendant</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3351724228/?eBP=JOB_SEARCH_ORGANIC&amp;refId=ar0r7UOWRyGp7LBv7kW9lA%3D%3D&amp;trackingId=qqKh5pNkaiRXBIYaWi%2Bb1w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/9358328/</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Admin Executive</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>ALBINO LIFESCIENCES PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Cabin Crew/Flight Attendant</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3318823998/?eBP=JOB_SEARCH_ORGANIC&amp;refId=ar0r7UOWRyGp7LBv7kW9lA%3D%3D&amp;trackingId=gZeVeqyjH2mFjoVcomitxg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/3064551/</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Personal Secretary</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Visaglobal</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Cabin Crew/Flight Attendant</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3333386979/?eBP=JOB_SEARCH_ORGANIC&amp;refId=ar0r7UOWRyGp7LBv7kW9lA%3D%3D&amp;trackingId=UtYjcx4nOjF4MhyRBIh3%2Fw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/27901162/</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Executive Assistant</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>rePurpose Global</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Cabin Crew/Flight Attendant</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3332118484/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=ar0r7UOWRyGp7LBv7kW9lA%3D%3D&amp;trackingId=IEsD5NncDSYLRcEuvsN%2FIQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Executive Assistant</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Veneklasen Associates, Inc.</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Cabin Crew/Flight Attendant</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3336109812/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=%2FY82ZXW0HtXp%2Fg7oowcUqQ%3D%3D&amp;trackingId=sp%2FyDz8ixMoBmozH0Pj6PA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/11297193/</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Front Desk Reception Internship in Delhi at Multimind Creations</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Multimind Creations</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Cabin Crew/Flight Attendant</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3347955017/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=%2FY82ZXW0HtXp%2Fg7oowcUqQ%3D%3D&amp;trackingId=q%2FVQY0k9bmR8OhNFrXSW%2BQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/660041/</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Administrative Assistant</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Nitika Gujral</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Cabin Crew/Flight Attendant</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3347973258/?eBP=JOB_SEARCH_ORGANIC&amp;refId=%2FY82ZXW0HtXp%2Fg7oowcUqQ%3D%3D&amp;trackingId=UreIRYxKoE9jMsFdnlhFJA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/3294645/</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Executive Assistant to Executive</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Cabin Crew/Flight Attendant</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3346448034/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=%2FY82ZXW0HtXp%2Fg7oowcUqQ%3D%3D&amp;trackingId=cEzgK%2B6njoyk9S4BQ6mntg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Executive Assitant</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Dhanadeepa Consultant Private limited</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>On-site</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Cabin Crew/Flight Attendant</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3321241451/?eBP=JOB_SEARCH_ORGANIC&amp;refId=%2FY82ZXW0HtXp%2Fg7oowcUqQ%3D%3D&amp;trackingId=FXuxPaP2IqepdyimsWDbJw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr">
         <is>
           <t>Executive Administration</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
+      <c r="F256" t="inlineStr">
         <is>
           <t>Delhi, India</t>
         </is>
       </c>
-      <c r="G242" t="inlineStr">
+      <c r="G256" t="inlineStr">
         <is>
           <t>CELLA SOLUTIONS</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
+      <c r="H256" t="inlineStr">
         <is>
           <t>On-site</t>
         </is>
